--- a/Documents/Azubi_2/Project_1/India_Startup_Funding/cleaned 2020.xlsx
+++ b/Documents/Azubi_2/Project_1/India_Startup_Funding/cleaned 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Azubi_2\Project_1\India_Startup_Funding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EA2E1D-6BA2-4260-B145-C18A5AF04729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5021B685-2EB1-4AE8-9CE2-B38881C02B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <t>Investor</t>
   </si>
   <si>
-    <t>Amount</t>
+    <t>Amount($)</t>
   </si>
   <si>
     <t>Stage</t>
@@ -12424,7 +12424,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -12434,16 +12436,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -12473,20 +12482,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -12501,18 +12496,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D82F03E-D3C3-4554-80B0-BE4E3C5FEE41}" name="Table1" displayName="Table1" ref="A1:I1053" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:I1053" xr:uid="{1D82F03E-D3C3-4554-80B0-BE4E3C5FEE41}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FA18015-58BE-43E3-BC8C-54787F4B5E70}" name="Table1" displayName="Table1" ref="A1:I1053" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:I1053" xr:uid="{0FA18015-58BE-43E3-BC8C-54787F4B5E70}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9C16A034-B63C-407B-824E-4F6CB498A4FE}" name="Company/Brand"/>
-    <tableColumn id="2" xr3:uid="{24CF12A5-26D7-467E-96DA-CF26590809EB}" name="Founded"/>
-    <tableColumn id="3" xr3:uid="{CD19E401-CCD3-4E2D-86C9-96359772C04B}" name="City"/>
-    <tableColumn id="4" xr3:uid="{A6B56C1A-E29A-4F02-A9EE-D4C381CBD6D7}" name="Sector"/>
-    <tableColumn id="5" xr3:uid="{A6C09BB2-932F-4A57-8FFE-37142BA100AA}" name="What it does"/>
-    <tableColumn id="6" xr3:uid="{56D9916A-9DA8-4A26-942F-046D763EA502}" name="Founders"/>
-    <tableColumn id="7" xr3:uid="{F9DADC8A-9AF4-483F-B9F6-D20C5AC4299F}" name="Investor"/>
-    <tableColumn id="8" xr3:uid="{60C31CC4-7F56-4D42-A34C-3D15B5AD7A6E}" name="Amount"/>
-    <tableColumn id="9" xr3:uid="{2E26F723-FA9C-4E72-9F5E-91380C67AB75}" name="Stage"/>
+    <tableColumn id="2" xr3:uid="{45B86449-8BF9-4C9D-9542-FF3CB06D6642}" name="Company/Brand"/>
+    <tableColumn id="3" xr3:uid="{BB73B704-AB62-4C44-9E2F-E9C4B42216E4}" name="Founded" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{CA831C82-3E71-458F-BB8C-ACB22DF40C71}" name="City"/>
+    <tableColumn id="5" xr3:uid="{CBA9BE48-3A96-4DE9-AD96-65B8A07065CF}" name="Sector"/>
+    <tableColumn id="6" xr3:uid="{5E7AFC4B-A4CC-4510-AE18-B28F9F837E4F}" name="What it does"/>
+    <tableColumn id="7" xr3:uid="{326E5AEC-09B3-4B75-ADAB-EB04420B72D0}" name="Founders"/>
+    <tableColumn id="8" xr3:uid="{8BABEBAA-9C39-4FD2-9F79-E6D8D1AF23E5}" name="Investor"/>
+    <tableColumn id="9" xr3:uid="{15A1C862-8CBF-45A1-9720-EF379AA5619D}" name="Amount($)"/>
+    <tableColumn id="10" xr3:uid="{D0A3F492-D7A4-4CA2-8D34-E5ECE7D099AE}" name="Stage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12842,24 +12837,24 @@
   <dimension ref="A1:I1053"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" customWidth="1"/>
     <col min="6" max="6" width="10.6328125" customWidth="1"/>
     <col min="7" max="7" width="9.7265625" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" customWidth="1"/>
+    <col min="8" max="8" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -12888,7 +12883,7 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C2" t="s">
@@ -12917,7 +12912,7 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C3" t="s">
@@ -12946,7 +12941,7 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C4" t="s">
@@ -12975,7 +12970,7 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C5" t="s">
@@ -13004,7 +12999,7 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C6" t="s">
@@ -13033,7 +13028,7 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C7" t="s">
@@ -13062,7 +13057,7 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>918</v>
       </c>
       <c r="C8" t="s">
@@ -13091,7 +13086,7 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C9" t="s">
@@ -13120,7 +13115,7 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C10" t="s">
@@ -13149,7 +13144,7 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C11" t="s">
@@ -13178,7 +13173,7 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C12" t="s">
@@ -13207,7 +13202,7 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C13" t="s">
@@ -13236,7 +13231,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C14" t="s">
@@ -13265,7 +13260,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C15" t="s">
@@ -13294,7 +13289,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C16" t="s">
@@ -13323,7 +13318,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>918</v>
       </c>
       <c r="C17" t="s">
@@ -13352,7 +13347,7 @@
       <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C18" t="s">
@@ -13381,7 +13376,7 @@
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C19" t="s">
@@ -13410,7 +13405,7 @@
       <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>922</v>
       </c>
       <c r="C20" t="s">
@@ -13439,7 +13434,7 @@
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C21" t="s">
@@ -13468,7 +13463,7 @@
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C22" t="s">
@@ -13497,7 +13492,7 @@
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C23" t="s">
@@ -13526,7 +13521,7 @@
       <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C24" t="s">
@@ -13555,7 +13550,7 @@
       <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C25" t="s">
@@ -13584,7 +13579,7 @@
       <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C26" t="s">
@@ -13613,7 +13608,7 @@
       <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C27" t="s">
@@ -13642,7 +13637,7 @@
       <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C28" t="s">
@@ -13671,7 +13666,7 @@
       <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>923</v>
       </c>
       <c r="C29" t="s">
@@ -13700,7 +13695,7 @@
       <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C30" t="s">
@@ -13729,7 +13724,7 @@
       <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C31" t="s">
@@ -13758,7 +13753,7 @@
       <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>925</v>
       </c>
       <c r="C32" t="s">
@@ -13787,7 +13782,7 @@
       <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C33" t="s">
@@ -13816,7 +13811,7 @@
       <c r="A34" t="s">
         <v>41</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C34" t="s">
@@ -13845,7 +13840,7 @@
       <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C35" t="s">
@@ -13874,7 +13869,7 @@
       <c r="A36" t="s">
         <v>43</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C36" t="s">
@@ -13903,7 +13898,7 @@
       <c r="A37" t="s">
         <v>44</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C37" t="s">
@@ -13932,7 +13927,7 @@
       <c r="A38" t="s">
         <v>45</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C38" t="s">
@@ -13961,7 +13956,7 @@
       <c r="A39" t="s">
         <v>46</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C39" t="s">
@@ -13990,7 +13985,7 @@
       <c r="A40" t="s">
         <v>47</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C40" t="s">
@@ -14019,7 +14014,7 @@
       <c r="A41" t="s">
         <v>48</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>918</v>
       </c>
       <c r="C41" t="s">
@@ -14048,7 +14043,7 @@
       <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C42" t="s">
@@ -14077,7 +14072,7 @@
       <c r="A43" t="s">
         <v>50</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C43" t="s">
@@ -14106,7 +14101,7 @@
       <c r="A44" t="s">
         <v>51</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C44" t="s">
@@ -14135,7 +14130,7 @@
       <c r="A45" t="s">
         <v>52</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C45" t="s">
@@ -14164,7 +14159,7 @@
       <c r="A46" t="s">
         <v>53</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C46" t="s">
@@ -14193,7 +14188,7 @@
       <c r="A47" t="s">
         <v>54</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C47" t="s">
@@ -14222,7 +14217,7 @@
       <c r="A48" t="s">
         <v>55</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C48" t="s">
@@ -14251,7 +14246,7 @@
       <c r="A49" t="s">
         <v>56</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C49" t="s">
@@ -14280,7 +14275,7 @@
       <c r="A50" t="s">
         <v>57</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C50" t="s">
@@ -14309,7 +14304,7 @@
       <c r="A51" t="s">
         <v>58</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C51" t="s">
@@ -14338,7 +14333,7 @@
       <c r="A52" t="s">
         <v>41</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C52" t="s">
@@ -14367,7 +14362,7 @@
       <c r="A53" t="s">
         <v>59</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C53" t="s">
@@ -14396,7 +14391,7 @@
       <c r="A54" t="s">
         <v>60</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C54" t="s">
@@ -14425,7 +14420,7 @@
       <c r="A55" t="s">
         <v>61</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C55" t="s">
@@ -14454,7 +14449,7 @@
       <c r="A56" t="s">
         <v>62</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C56" t="s">
@@ -14483,7 +14478,7 @@
       <c r="A57" t="s">
         <v>63</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C57" t="s">
@@ -14512,7 +14507,7 @@
       <c r="A58" t="s">
         <v>64</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>927</v>
       </c>
       <c r="C58" t="s">
@@ -14541,7 +14536,7 @@
       <c r="A59" t="s">
         <v>65</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C59" t="s">
@@ -14570,7 +14565,7 @@
       <c r="A60" t="s">
         <v>66</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C60" t="s">
@@ -14599,7 +14594,7 @@
       <c r="A61" t="s">
         <v>67</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C61" t="s">
@@ -14628,7 +14623,7 @@
       <c r="A62" t="s">
         <v>68</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C62" t="s">
@@ -14657,7 +14652,7 @@
       <c r="A63" t="s">
         <v>69</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C63" t="s">
@@ -14686,7 +14681,7 @@
       <c r="A64" t="s">
         <v>70</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C64" t="s">
@@ -14715,7 +14710,7 @@
       <c r="A65" t="s">
         <v>71</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C65" t="s">
@@ -14744,7 +14739,7 @@
       <c r="A66" t="s">
         <v>72</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C66" t="s">
@@ -14773,7 +14768,7 @@
       <c r="A67" t="s">
         <v>73</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C67" t="s">
@@ -14802,7 +14797,7 @@
       <c r="A68" t="s">
         <v>74</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C68" t="s">
@@ -14831,7 +14826,7 @@
       <c r="A69" t="s">
         <v>75</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C69" t="s">
@@ -14860,7 +14855,7 @@
       <c r="A70" t="s">
         <v>76</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C70" t="s">
@@ -14889,7 +14884,7 @@
       <c r="A71" t="s">
         <v>77</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C71" t="s">
@@ -14918,7 +14913,7 @@
       <c r="A72" t="s">
         <v>78</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C72" t="s">
@@ -14947,7 +14942,7 @@
       <c r="A73" t="s">
         <v>79</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C73" t="s">
@@ -14976,7 +14971,7 @@
       <c r="A74" t="s">
         <v>80</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C74" t="s">
@@ -15005,7 +15000,7 @@
       <c r="A75" t="s">
         <v>81</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C75" t="s">
@@ -15034,7 +15029,7 @@
       <c r="A76" t="s">
         <v>82</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C76" t="s">
@@ -15063,7 +15058,7 @@
       <c r="A77" t="s">
         <v>83</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C77" t="s">
@@ -15092,7 +15087,7 @@
       <c r="A78" t="s">
         <v>84</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C78" t="s">
@@ -15121,7 +15116,7 @@
       <c r="A79" t="s">
         <v>85</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C79" t="s">
@@ -15150,7 +15145,7 @@
       <c r="A80" t="s">
         <v>86</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C80" t="s">
@@ -15179,7 +15174,7 @@
       <c r="A81" t="s">
         <v>87</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C81" t="s">
@@ -15208,7 +15203,7 @@
       <c r="A82" t="s">
         <v>88</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C82" t="s">
@@ -15237,7 +15232,7 @@
       <c r="A83" t="s">
         <v>89</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>929</v>
       </c>
       <c r="C83" t="s">
@@ -15266,7 +15261,7 @@
       <c r="A84" t="s">
         <v>90</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C84" t="s">
@@ -15295,7 +15290,7 @@
       <c r="A85" t="s">
         <v>91</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C85" t="s">
@@ -15324,7 +15319,7 @@
       <c r="A86" t="s">
         <v>92</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C86" t="s">
@@ -15353,7 +15348,7 @@
       <c r="A87" t="s">
         <v>93</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>930</v>
       </c>
       <c r="C87" t="s">
@@ -15382,7 +15377,7 @@
       <c r="A88" t="s">
         <v>94</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C88" t="s">
@@ -15411,7 +15406,7 @@
       <c r="A89" t="s">
         <v>95</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>917</v>
       </c>
       <c r="D89" t="s">
@@ -15437,7 +15432,7 @@
       <c r="A90" t="s">
         <v>96</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C90" t="s">
@@ -15466,7 +15461,7 @@
       <c r="A91" t="s">
         <v>97</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C91" t="s">
@@ -15495,7 +15490,7 @@
       <c r="A92" t="s">
         <v>98</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C92" t="s">
@@ -15524,7 +15519,7 @@
       <c r="A93" t="s">
         <v>99</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C93" t="s">
@@ -15553,7 +15548,7 @@
       <c r="A94" t="s">
         <v>100</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>914</v>
       </c>
       <c r="D94" t="s">
@@ -15579,7 +15574,7 @@
       <c r="A95" t="s">
         <v>101</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C95" t="s">
@@ -15608,7 +15603,7 @@
       <c r="A96" t="s">
         <v>102</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C96" t="s">
@@ -15637,7 +15632,7 @@
       <c r="A97" t="s">
         <v>103</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>916</v>
       </c>
       <c r="D97" t="s">
@@ -15663,7 +15658,7 @@
       <c r="A98" t="s">
         <v>104</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C98" t="s">
@@ -15692,7 +15687,7 @@
       <c r="A99" t="s">
         <v>105</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C99" t="s">
@@ -15721,7 +15716,7 @@
       <c r="A100" t="s">
         <v>106</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C100" t="s">
@@ -15750,7 +15745,7 @@
       <c r="A101" t="s">
         <v>107</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C101" t="s">
@@ -15779,7 +15774,7 @@
       <c r="A102" t="s">
         <v>108</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C102" t="s">
@@ -15808,7 +15803,7 @@
       <c r="A103" t="s">
         <v>109</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C103" t="s">
@@ -15837,7 +15832,7 @@
       <c r="A104" t="s">
         <v>110</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C104" t="s">
@@ -15866,7 +15861,7 @@
       <c r="A105" t="s">
         <v>111</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C105" t="s">
@@ -15895,7 +15890,7 @@
       <c r="A106" t="s">
         <v>112</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C106" t="s">
@@ -15924,7 +15919,7 @@
       <c r="A107" t="s">
         <v>113</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C107" t="s">
@@ -15953,7 +15948,7 @@
       <c r="A108" t="s">
         <v>114</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C108" t="s">
@@ -15982,7 +15977,7 @@
       <c r="A109" t="s">
         <v>115</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C109" t="s">
@@ -16011,7 +16006,7 @@
       <c r="A110" t="s">
         <v>116</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C110" t="s">
@@ -16040,7 +16035,7 @@
       <c r="A111" t="s">
         <v>108</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C111" t="s">
@@ -16069,7 +16064,7 @@
       <c r="A112" t="s">
         <v>117</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C112" t="s">
@@ -16098,7 +16093,7 @@
       <c r="A113" t="s">
         <v>118</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C113" t="s">
@@ -16127,7 +16122,7 @@
       <c r="A114" t="s">
         <v>119</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C114" t="s">
@@ -16156,7 +16151,7 @@
       <c r="A115" t="s">
         <v>120</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>918</v>
       </c>
       <c r="C115" t="s">
@@ -16185,7 +16180,7 @@
       <c r="A116" t="s">
         <v>121</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C116" t="s">
@@ -16214,7 +16209,7 @@
       <c r="A117" t="s">
         <v>122</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C117" t="s">
@@ -16243,7 +16238,7 @@
       <c r="A118" t="s">
         <v>123</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C118" t="s">
@@ -16272,7 +16267,7 @@
       <c r="A119" t="s">
         <v>124</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C119" t="s">
@@ -16301,7 +16296,7 @@
       <c r="A120" t="s">
         <v>125</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C120" t="s">
@@ -16330,7 +16325,7 @@
       <c r="A121" t="s">
         <v>126</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C121" t="s">
@@ -16359,7 +16354,7 @@
       <c r="A122" t="s">
         <v>127</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C122" t="s">
@@ -16388,7 +16383,7 @@
       <c r="A123" t="s">
         <v>128</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>916</v>
       </c>
       <c r="D123" t="s">
@@ -16414,7 +16409,7 @@
       <c r="A124" t="s">
         <v>129</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C124" t="s">
@@ -16443,7 +16438,7 @@
       <c r="A125" t="s">
         <v>130</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C125" t="s">
@@ -16472,7 +16467,7 @@
       <c r="A126" t="s">
         <v>131</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C126" t="s">
@@ -16501,7 +16496,7 @@
       <c r="A127" t="s">
         <v>132</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C127" t="s">
@@ -16530,7 +16525,7 @@
       <c r="A128" t="s">
         <v>110</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C128" t="s">
@@ -16559,7 +16554,7 @@
       <c r="A129" t="s">
         <v>133</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C129" t="s">
@@ -16588,7 +16583,7 @@
       <c r="A130" t="s">
         <v>134</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C130" t="s">
@@ -16617,7 +16612,7 @@
       <c r="A131" t="s">
         <v>135</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C131" t="s">
@@ -16646,7 +16641,7 @@
       <c r="A132" t="s">
         <v>136</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C132" t="s">
@@ -16675,7 +16670,7 @@
       <c r="A133" t="s">
         <v>137</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C133" t="s">
@@ -16704,7 +16699,7 @@
       <c r="A134" t="s">
         <v>138</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C134" t="s">
@@ -16733,7 +16728,7 @@
       <c r="A135" t="s">
         <v>139</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C135" t="s">
@@ -16762,7 +16757,7 @@
       <c r="A136" t="s">
         <v>140</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C136" t="s">
@@ -16791,7 +16786,7 @@
       <c r="A137" t="s">
         <v>141</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C137" t="s">
@@ -16820,7 +16815,7 @@
       <c r="A138" t="s">
         <v>142</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C138" t="s">
@@ -16849,7 +16844,7 @@
       <c r="A139" t="s">
         <v>143</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C139" t="s">
@@ -16878,7 +16873,7 @@
       <c r="A140" t="s">
         <v>144</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C140" t="s">
@@ -16907,7 +16902,7 @@
       <c r="A141" t="s">
         <v>145</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C141" t="s">
@@ -16936,7 +16931,7 @@
       <c r="A142" t="s">
         <v>146</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>931</v>
       </c>
       <c r="C142" t="s">
@@ -16965,7 +16960,7 @@
       <c r="A143" t="s">
         <v>147</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C143" t="s">
@@ -16994,7 +16989,7 @@
       <c r="A144" t="s">
         <v>148</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C144" t="s">
@@ -17023,7 +17018,7 @@
       <c r="A145" t="s">
         <v>149</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C145" t="s">
@@ -17052,7 +17047,7 @@
       <c r="A146" t="s">
         <v>150</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C146" t="s">
@@ -17081,7 +17076,7 @@
       <c r="A147" t="s">
         <v>151</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C147" t="s">
@@ -17110,7 +17105,7 @@
       <c r="A148" t="s">
         <v>152</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C148" t="s">
@@ -17139,7 +17134,7 @@
       <c r="A149" t="s">
         <v>153</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C149" t="s">
@@ -17168,7 +17163,7 @@
       <c r="A150" t="s">
         <v>154</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C150" t="s">
@@ -17197,7 +17192,7 @@
       <c r="A151" t="s">
         <v>155</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C151" t="s">
@@ -17226,7 +17221,7 @@
       <c r="A152" t="s">
         <v>156</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C152" t="s">
@@ -17255,7 +17250,7 @@
       <c r="A153" t="s">
         <v>157</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>932</v>
       </c>
       <c r="C153" t="s">
@@ -17284,7 +17279,7 @@
       <c r="A154" t="s">
         <v>158</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C154" t="s">
@@ -17313,7 +17308,7 @@
       <c r="A155" t="s">
         <v>159</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C155" t="s">
@@ -17342,7 +17337,7 @@
       <c r="A156" t="s">
         <v>160</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C156" t="s">
@@ -17371,7 +17366,7 @@
       <c r="A157" t="s">
         <v>161</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>918</v>
       </c>
       <c r="C157" t="s">
@@ -17400,7 +17395,7 @@
       <c r="A158" t="s">
         <v>162</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C158" t="s">
@@ -17429,7 +17424,7 @@
       <c r="A159" t="s">
         <v>163</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C159" t="s">
@@ -17458,7 +17453,7 @@
       <c r="A160" t="s">
         <v>164</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C160" t="s">
@@ -17487,7 +17482,7 @@
       <c r="A161" t="s">
         <v>165</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C161" t="s">
@@ -17516,7 +17511,7 @@
       <c r="A162" t="s">
         <v>166</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C162" t="s">
@@ -17545,7 +17540,7 @@
       <c r="A163" t="s">
         <v>167</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="2">
         <v>2015</v>
       </c>
       <c r="C163" t="s">
@@ -17574,7 +17569,7 @@
       <c r="A164" t="s">
         <v>168</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="2" t="s">
         <v>930</v>
       </c>
       <c r="C164" t="s">
@@ -17603,7 +17598,7 @@
       <c r="A165" t="s">
         <v>169</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="2">
         <v>2015</v>
       </c>
       <c r="C165" t="s">
@@ -17632,7 +17627,7 @@
       <c r="A166" t="s">
         <v>170</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="2" t="s">
         <v>931</v>
       </c>
       <c r="C166" t="s">
@@ -17661,7 +17656,7 @@
       <c r="A167" t="s">
         <v>171</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C167" t="s">
@@ -17690,7 +17685,7 @@
       <c r="A168" t="s">
         <v>172</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C168" t="s">
@@ -17719,7 +17714,7 @@
       <c r="A169" t="s">
         <v>173</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="2" t="s">
         <v>923</v>
       </c>
       <c r="C169" t="s">
@@ -17748,7 +17743,7 @@
       <c r="A170" t="s">
         <v>174</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C170" t="s">
@@ -17777,7 +17772,7 @@
       <c r="A171" t="s">
         <v>175</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C171" t="s">
@@ -17806,7 +17801,7 @@
       <c r="A172" t="s">
         <v>176</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C172" t="s">
@@ -17835,7 +17830,7 @@
       <c r="A173" t="s">
         <v>177</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C173" t="s">
@@ -17864,7 +17859,7 @@
       <c r="A174" t="s">
         <v>178</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C174" t="s">
@@ -17893,7 +17888,7 @@
       <c r="A175" t="s">
         <v>179</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C175" t="s">
@@ -17922,7 +17917,7 @@
       <c r="A176" t="s">
         <v>180</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="2" t="s">
         <v>918</v>
       </c>
       <c r="C176" t="s">
@@ -17951,7 +17946,7 @@
       <c r="A177" t="s">
         <v>181</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C177" t="s">
@@ -17980,7 +17975,7 @@
       <c r="A178" t="s">
         <v>182</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C178" t="s">
@@ -18009,7 +18004,7 @@
       <c r="A179" t="s">
         <v>183</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C179" t="s">
@@ -18038,7 +18033,7 @@
       <c r="A180" t="s">
         <v>184</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C180" t="s">
@@ -18067,7 +18062,7 @@
       <c r="A181" t="s">
         <v>185</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="2">
         <v>2015</v>
       </c>
       <c r="C181" t="s">
@@ -18096,7 +18091,7 @@
       <c r="A182" t="s">
         <v>186</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C182" t="s">
@@ -18125,7 +18120,7 @@
       <c r="A183" t="s">
         <v>187</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C183" t="s">
@@ -18154,7 +18149,7 @@
       <c r="A184" t="s">
         <v>188</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C184" t="s">
@@ -18183,7 +18178,7 @@
       <c r="A185" t="s">
         <v>189</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C185" t="s">
@@ -18212,7 +18207,7 @@
       <c r="A186" t="s">
         <v>190</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C186" t="s">
@@ -18241,7 +18236,7 @@
       <c r="A187" t="s">
         <v>191</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C187" t="s">
@@ -18270,7 +18265,7 @@
       <c r="A188" t="s">
         <v>192</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C188" t="s">
@@ -18299,7 +18294,7 @@
       <c r="A189" t="s">
         <v>193</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C189" t="s">
@@ -18328,7 +18323,7 @@
       <c r="A190" t="s">
         <v>194</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C190" t="s">
@@ -18357,7 +18352,7 @@
       <c r="A191" t="s">
         <v>195</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C191" t="s">
@@ -18386,7 +18381,7 @@
       <c r="A192" t="s">
         <v>196</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C192" t="s">
@@ -18415,7 +18410,7 @@
       <c r="A193" t="s">
         <v>197</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C193" t="s">
@@ -18444,7 +18439,7 @@
       <c r="A194" t="s">
         <v>198</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C194" t="s">
@@ -18473,7 +18468,7 @@
       <c r="A195" t="s">
         <v>199</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C195" t="s">
@@ -18502,7 +18497,7 @@
       <c r="A196" t="s">
         <v>200</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C196" t="s">
@@ -18531,7 +18526,7 @@
       <c r="A197" t="s">
         <v>201</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C197" t="s">
@@ -18560,7 +18555,7 @@
       <c r="A198" t="s">
         <v>202</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C198" t="s">
@@ -18589,7 +18584,7 @@
       <c r="A199" t="s">
         <v>203</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C199" t="s">
@@ -18618,7 +18613,7 @@
       <c r="A200" t="s">
         <v>204</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C200" t="s">
@@ -18647,7 +18642,7 @@
       <c r="A201" t="s">
         <v>205</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="2" t="s">
         <v>930</v>
       </c>
       <c r="C201" t="s">
@@ -18676,7 +18671,7 @@
       <c r="A202" t="s">
         <v>206</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C202" t="s">
@@ -18705,7 +18700,7 @@
       <c r="A203" t="s">
         <v>108</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C203" t="s">
@@ -18734,7 +18729,7 @@
       <c r="A204" t="s">
         <v>207</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C204" t="s">
@@ -18763,7 +18758,7 @@
       <c r="A205" t="s">
         <v>208</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C205" t="s">
@@ -18792,7 +18787,7 @@
       <c r="A206" t="s">
         <v>209</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C206" t="s">
@@ -18821,7 +18816,7 @@
       <c r="A207" t="s">
         <v>210</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C207" t="s">
@@ -18850,7 +18845,7 @@
       <c r="A208" t="s">
         <v>211</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C208" t="s">
@@ -18879,7 +18874,7 @@
       <c r="A209" t="s">
         <v>212</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C209" t="s">
@@ -18908,7 +18903,7 @@
       <c r="A210" t="s">
         <v>213</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C210" t="s">
@@ -18937,7 +18932,7 @@
       <c r="A211" t="s">
         <v>200</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C211" t="s">
@@ -18966,7 +18961,7 @@
       <c r="A212" t="s">
         <v>209</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C212" t="s">
@@ -18995,7 +18990,7 @@
       <c r="A213" t="s">
         <v>127</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C213" t="s">
@@ -19024,7 +19019,7 @@
       <c r="A214" t="s">
         <v>214</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C214" t="s">
@@ -19053,7 +19048,7 @@
       <c r="A215" t="s">
         <v>215</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C215" t="s">
@@ -19082,7 +19077,7 @@
       <c r="A216" t="s">
         <v>216</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C216" t="s">
@@ -19111,7 +19106,7 @@
       <c r="A217" t="s">
         <v>217</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="2" t="s">
         <v>930</v>
       </c>
       <c r="C217" t="s">
@@ -19140,7 +19135,7 @@
       <c r="A218" t="s">
         <v>218</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C218" t="s">
@@ -19169,7 +19164,7 @@
       <c r="A219" t="s">
         <v>219</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C219" t="s">
@@ -19198,7 +19193,7 @@
       <c r="A220" t="s">
         <v>220</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C220" t="s">
@@ -19227,7 +19222,7 @@
       <c r="A221" t="s">
         <v>221</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C221" t="s">
@@ -19256,7 +19251,7 @@
       <c r="A222" t="s">
         <v>149</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C222" t="s">
@@ -19285,7 +19280,7 @@
       <c r="A223" t="s">
         <v>222</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C223" t="s">
@@ -19314,7 +19309,7 @@
       <c r="A224" t="s">
         <v>223</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C224" t="s">
@@ -19343,7 +19338,7 @@
       <c r="A225" t="s">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C225" t="s">
@@ -19372,7 +19367,7 @@
       <c r="A226" t="s">
         <v>225</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C226" t="s">
@@ -19401,7 +19396,7 @@
       <c r="A227" t="s">
         <v>97</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C227" t="s">
@@ -19430,7 +19425,7 @@
       <c r="A228" t="s">
         <v>226</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C228" t="s">
@@ -19459,7 +19454,7 @@
       <c r="A229" t="s">
         <v>227</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C229" t="s">
@@ -19488,7 +19483,7 @@
       <c r="A230" t="s">
         <v>228</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C230" t="s">
@@ -19517,7 +19512,7 @@
       <c r="A231" t="s">
         <v>229</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C231" t="s">
@@ -19546,7 +19541,7 @@
       <c r="A232" t="s">
         <v>230</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C232" t="s">
@@ -19575,7 +19570,7 @@
       <c r="A233" t="s">
         <v>215</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C233" t="s">
@@ -19604,7 +19599,7 @@
       <c r="A234" t="s">
         <v>231</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C234" t="s">
@@ -19633,7 +19628,7 @@
       <c r="A235" t="s">
         <v>232</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C235" t="s">
@@ -19662,7 +19657,7 @@
       <c r="A236" t="s">
         <v>233</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C236" t="s">
@@ -19691,7 +19686,7 @@
       <c r="A237" t="s">
         <v>234</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C237" t="s">
@@ -19720,7 +19715,7 @@
       <c r="A238" t="s">
         <v>235</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C238" t="s">
@@ -19749,7 +19744,7 @@
       <c r="A239" t="s">
         <v>236</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C239" t="s">
@@ -19778,7 +19773,7 @@
       <c r="A240" t="s">
         <v>237</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C240" t="s">
@@ -19807,7 +19802,7 @@
       <c r="A241" t="s">
         <v>238</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C241" t="s">
@@ -19836,7 +19831,7 @@
       <c r="A242" t="s">
         <v>239</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C242" t="s">
@@ -19865,7 +19860,7 @@
       <c r="A243" t="s">
         <v>240</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C243" t="s">
@@ -19894,7 +19889,7 @@
       <c r="A244" t="s">
         <v>241</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="2">
         <v>2015</v>
       </c>
       <c r="C244" t="s">
@@ -19923,7 +19918,7 @@
       <c r="A245" t="s">
         <v>242</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C245" t="s">
@@ -19952,7 +19947,7 @@
       <c r="A246" t="s">
         <v>243</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C246" t="s">
@@ -19981,7 +19976,7 @@
       <c r="A247" t="s">
         <v>24</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="2" t="s">
         <v>918</v>
       </c>
       <c r="C247" t="s">
@@ -20010,7 +20005,7 @@
       <c r="A248" t="s">
         <v>244</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C248" t="s">
@@ -20039,7 +20034,7 @@
       <c r="A249" t="s">
         <v>245</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C249" t="s">
@@ -20068,7 +20063,7 @@
       <c r="A250" t="s">
         <v>246</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C250" t="s">
@@ -20097,7 +20092,7 @@
       <c r="A251" t="s">
         <v>247</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C251" t="s">
@@ -20126,7 +20121,7 @@
       <c r="A252" t="s">
         <v>248</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C252" t="s">
@@ -20155,7 +20150,7 @@
       <c r="A253" t="s">
         <v>249</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C253" t="s">
@@ -20184,7 +20179,7 @@
       <c r="A254" t="s">
         <v>250</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C254" t="s">
@@ -20213,7 +20208,7 @@
       <c r="A255" t="s">
         <v>251</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C255" t="s">
@@ -20242,7 +20237,7 @@
       <c r="A256" t="s">
         <v>252</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C256" t="s">
@@ -20271,7 +20266,7 @@
       <c r="A257" t="s">
         <v>253</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C257" t="s">
@@ -20300,7 +20295,7 @@
       <c r="A258" t="s">
         <v>233</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C258" t="s">
@@ -20329,7 +20324,7 @@
       <c r="A259" t="s">
         <v>254</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C259" t="s">
@@ -20358,7 +20353,7 @@
       <c r="A260" t="s">
         <v>255</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C260" t="s">
@@ -20387,7 +20382,7 @@
       <c r="A261" t="s">
         <v>256</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C261" t="s">
@@ -20416,7 +20411,7 @@
       <c r="A262" t="s">
         <v>257</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C262" t="s">
@@ -20445,7 +20440,7 @@
       <c r="A263" t="s">
         <v>258</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C263" t="s">
@@ -20474,7 +20469,7 @@
       <c r="A264" t="s">
         <v>259</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C264" t="s">
@@ -20503,7 +20498,7 @@
       <c r="A265" t="s">
         <v>260</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="2" t="s">
         <v>933</v>
       </c>
       <c r="C265" t="s">
@@ -20532,7 +20527,7 @@
       <c r="A266" t="s">
         <v>261</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C266" t="s">
@@ -20561,7 +20556,7 @@
       <c r="A267" t="s">
         <v>262</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C267" t="s">
@@ -20590,7 +20585,7 @@
       <c r="A268" t="s">
         <v>263</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C268" t="s">
@@ -20619,7 +20614,7 @@
       <c r="A269" t="s">
         <v>264</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="2" t="s">
         <v>918</v>
       </c>
       <c r="C269" t="s">
@@ -20648,7 +20643,7 @@
       <c r="A270" t="s">
         <v>265</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C270" t="s">
@@ -20677,7 +20672,7 @@
       <c r="A271" t="s">
         <v>266</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C271" t="s">
@@ -20706,7 +20701,7 @@
       <c r="A272" t="s">
         <v>267</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C272" t="s">
@@ -20735,7 +20730,7 @@
       <c r="A273" t="s">
         <v>268</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C273" t="s">
@@ -20764,7 +20759,7 @@
       <c r="A274" t="s">
         <v>269</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C274" t="s">
@@ -20793,7 +20788,7 @@
       <c r="A275" t="s">
         <v>270</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C275" t="s">
@@ -20822,7 +20817,7 @@
       <c r="A276" t="s">
         <v>271</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C276" t="s">
@@ -20851,7 +20846,7 @@
       <c r="A277" t="s">
         <v>272</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="2">
         <v>2015</v>
       </c>
       <c r="C277" t="s">
@@ -20880,7 +20875,7 @@
       <c r="A278" t="s">
         <v>273</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="2" t="s">
         <v>934</v>
       </c>
       <c r="C278" t="s">
@@ -20909,7 +20904,7 @@
       <c r="A279" t="s">
         <v>274</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C279" t="s">
@@ -20938,7 +20933,7 @@
       <c r="A280" t="s">
         <v>275</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="2" t="s">
         <v>931</v>
       </c>
       <c r="C280" t="s">
@@ -20967,7 +20962,7 @@
       <c r="A281" t="s">
         <v>276</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C281" t="s">
@@ -20996,7 +20991,7 @@
       <c r="A282" t="s">
         <v>277</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C282" t="s">
@@ -21025,7 +21020,7 @@
       <c r="A283" t="s">
         <v>278</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C283" t="s">
@@ -21054,7 +21049,7 @@
       <c r="A284" t="s">
         <v>279</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C284" t="s">
@@ -21083,7 +21078,7 @@
       <c r="A285" t="s">
         <v>280</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C285" t="s">
@@ -21112,7 +21107,7 @@
       <c r="A286" t="s">
         <v>281</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C286" t="s">
@@ -21141,7 +21136,7 @@
       <c r="A287" t="s">
         <v>282</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C287" t="s">
@@ -21170,7 +21165,7 @@
       <c r="A288" t="s">
         <v>283</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C288" t="s">
@@ -21199,7 +21194,7 @@
       <c r="A289" t="s">
         <v>284</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C289" t="s">
@@ -21228,7 +21223,7 @@
       <c r="A290" t="s">
         <v>285</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C290" t="s">
@@ -21257,7 +21252,7 @@
       <c r="A291" t="s">
         <v>286</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C291" t="s">
@@ -21286,7 +21281,7 @@
       <c r="A292" t="s">
         <v>287</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C292" t="s">
@@ -21315,7 +21310,7 @@
       <c r="A293" t="s">
         <v>288</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="2">
         <v>2015</v>
       </c>
       <c r="C293" t="s">
@@ -21344,7 +21339,7 @@
       <c r="A294" t="s">
         <v>289</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C294" t="s">
@@ -21373,7 +21368,7 @@
       <c r="A295" t="s">
         <v>290</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="2" t="s">
         <v>930</v>
       </c>
       <c r="C295" t="s">
@@ -21402,7 +21397,7 @@
       <c r="A296" t="s">
         <v>291</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C296" t="s">
@@ -21431,7 +21426,7 @@
       <c r="A297" t="s">
         <v>292</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C297" t="s">
@@ -21460,7 +21455,7 @@
       <c r="A298" t="s">
         <v>293</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C298" t="s">
@@ -21489,7 +21484,7 @@
       <c r="A299" t="s">
         <v>294</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C299" t="s">
@@ -21518,7 +21513,7 @@
       <c r="A300" t="s">
         <v>295</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C300" t="s">
@@ -21547,7 +21542,7 @@
       <c r="A301" t="s">
         <v>296</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C301" t="s">
@@ -21576,7 +21571,7 @@
       <c r="A302" t="s">
         <v>297</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="2" t="s">
         <v>931</v>
       </c>
       <c r="C302" t="s">
@@ -21605,7 +21600,7 @@
       <c r="A303" t="s">
         <v>298</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="2" t="s">
         <v>935</v>
       </c>
       <c r="C303" t="s">
@@ -21634,7 +21629,7 @@
       <c r="A304" t="s">
         <v>299</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C304" t="s">
@@ -21663,7 +21658,7 @@
       <c r="A305" t="s">
         <v>300</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C305" t="s">
@@ -21692,7 +21687,7 @@
       <c r="A306" t="s">
         <v>301</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C306" t="s">
@@ -21721,7 +21716,7 @@
       <c r="A307" t="s">
         <v>302</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C307" t="s">
@@ -21750,7 +21745,7 @@
       <c r="A308" t="s">
         <v>303</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C308" t="s">
@@ -21779,7 +21774,7 @@
       <c r="A309" t="s">
         <v>304</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C309" t="s">
@@ -21808,7 +21803,7 @@
       <c r="A310" t="s">
         <v>305</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C310" t="s">
@@ -21837,7 +21832,7 @@
       <c r="A311" t="s">
         <v>306</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C311" t="s">
@@ -21866,7 +21861,7 @@
       <c r="A312" t="s">
         <v>307</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C312" t="s">
@@ -21895,7 +21890,7 @@
       <c r="A313" t="s">
         <v>308</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C313" t="s">
@@ -21924,7 +21919,7 @@
       <c r="A314" t="s">
         <v>309</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C314" t="s">
@@ -21953,7 +21948,7 @@
       <c r="A315" t="s">
         <v>310</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C315" t="s">
@@ -21982,7 +21977,7 @@
       <c r="A316" t="s">
         <v>311</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C316" t="s">
@@ -22011,7 +22006,7 @@
       <c r="A317" t="s">
         <v>312</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C317" t="s">
@@ -22040,7 +22035,7 @@
       <c r="A318" t="s">
         <v>313</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C318" t="s">
@@ -22069,7 +22064,7 @@
       <c r="A319" t="s">
         <v>314</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C319" t="s">
@@ -22098,7 +22093,7 @@
       <c r="A320" t="s">
         <v>315</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C320" t="s">
@@ -22127,7 +22122,7 @@
       <c r="A321" t="s">
         <v>316</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="2" t="s">
         <v>930</v>
       </c>
       <c r="C321" t="s">
@@ -22156,7 +22151,7 @@
       <c r="A322" t="s">
         <v>317</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="2" t="s">
         <v>923</v>
       </c>
       <c r="C322" t="s">
@@ -22185,7 +22180,7 @@
       <c r="A323" t="s">
         <v>318</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C323" t="s">
@@ -22214,7 +22209,7 @@
       <c r="A324" t="s">
         <v>319</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C324" t="s">
@@ -22243,7 +22238,7 @@
       <c r="A325" t="s">
         <v>320</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C325" t="s">
@@ -22272,7 +22267,7 @@
       <c r="A326" t="s">
         <v>321</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C326" t="s">
@@ -22301,7 +22296,7 @@
       <c r="A327" t="s">
         <v>322</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C327" t="s">
@@ -22330,7 +22325,7 @@
       <c r="A328" t="s">
         <v>323</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="2" t="s">
         <v>936</v>
       </c>
       <c r="C328" t="s">
@@ -22359,7 +22354,7 @@
       <c r="A329" t="s">
         <v>324</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C329" t="s">
@@ -22388,7 +22383,7 @@
       <c r="A330" t="s">
         <v>325</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C330" t="s">
@@ -22417,7 +22412,7 @@
       <c r="A331" t="s">
         <v>326</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C331" t="s">
@@ -22446,7 +22441,7 @@
       <c r="A332" t="s">
         <v>327</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C332" t="s">
@@ -22475,7 +22470,7 @@
       <c r="A333" t="s">
         <v>328</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C333" t="s">
@@ -22504,7 +22499,7 @@
       <c r="A334" t="s">
         <v>329</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="2" t="s">
         <v>918</v>
       </c>
       <c r="C334" t="s">
@@ -22533,7 +22528,7 @@
       <c r="A335" t="s">
         <v>133</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C335" t="s">
@@ -22562,7 +22557,7 @@
       <c r="A336" t="s">
         <v>330</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C336" t="s">
@@ -22591,7 +22586,7 @@
       <c r="A337" t="s">
         <v>331</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C337" t="s">
@@ -22620,7 +22615,7 @@
       <c r="A338" t="s">
         <v>332</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C338" t="s">
@@ -22649,7 +22644,7 @@
       <c r="A339" t="s">
         <v>333</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C339" t="s">
@@ -22678,7 +22673,7 @@
       <c r="A340" t="s">
         <v>127</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C340" t="s">
@@ -22707,7 +22702,7 @@
       <c r="A341" t="s">
         <v>334</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C341" t="s">
@@ -22736,7 +22731,7 @@
       <c r="A342" t="s">
         <v>335</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="2" t="s">
         <v>918</v>
       </c>
       <c r="C342" t="s">
@@ -22765,7 +22760,7 @@
       <c r="A343" t="s">
         <v>336</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C343" t="s">
@@ -22794,7 +22789,7 @@
       <c r="A344" t="s">
         <v>123</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C344" t="s">
@@ -22823,7 +22818,7 @@
       <c r="A345" t="s">
         <v>337</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C345" t="s">
@@ -22852,7 +22847,7 @@
       <c r="A346" t="s">
         <v>338</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C346" t="s">
@@ -22881,7 +22876,7 @@
       <c r="A347" t="s">
         <v>339</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C347" t="s">
@@ -22910,7 +22905,7 @@
       <c r="A348" t="s">
         <v>24</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="2" t="s">
         <v>918</v>
       </c>
       <c r="C348" t="s">
@@ -22939,7 +22934,7 @@
       <c r="A349" t="s">
         <v>340</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C349" t="s">
@@ -22968,7 +22963,7 @@
       <c r="A350" t="s">
         <v>341</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="2" t="s">
         <v>930</v>
       </c>
       <c r="C350" t="s">
@@ -22997,7 +22992,7 @@
       <c r="A351" t="s">
         <v>342</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C351" t="s">
@@ -23026,7 +23021,7 @@
       <c r="A352" t="s">
         <v>125</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C352" t="s">
@@ -23055,7 +23050,7 @@
       <c r="A353" t="s">
         <v>343</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C353" t="s">
@@ -23084,7 +23079,7 @@
       <c r="A354" t="s">
         <v>344</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C354" t="s">
@@ -23113,7 +23108,7 @@
       <c r="A355" t="s">
         <v>345</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C355" t="s">
@@ -23142,7 +23137,7 @@
       <c r="A356" t="s">
         <v>346</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="2" t="s">
         <v>918</v>
       </c>
       <c r="C356" t="s">
@@ -23171,7 +23166,7 @@
       <c r="A357" t="s">
         <v>347</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C357" t="s">
@@ -23200,7 +23195,7 @@
       <c r="A358" t="s">
         <v>348</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C358" t="s">
@@ -23229,7 +23224,7 @@
       <c r="A359" t="s">
         <v>349</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C359" t="s">
@@ -23258,7 +23253,7 @@
       <c r="A360" t="s">
         <v>350</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C360" t="s">
@@ -23287,7 +23282,7 @@
       <c r="A361" t="s">
         <v>351</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C361" t="s">
@@ -23316,7 +23311,7 @@
       <c r="A362" t="s">
         <v>352</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C362" t="s">
@@ -23345,7 +23340,7 @@
       <c r="A363" t="s">
         <v>170</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="2" t="s">
         <v>931</v>
       </c>
       <c r="C363" t="s">
@@ -23374,7 +23369,7 @@
       <c r="A364" t="s">
         <v>353</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C364" t="s">
@@ -23403,7 +23398,7 @@
       <c r="A365" t="s">
         <v>354</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C365" t="s">
@@ -23432,7 +23427,7 @@
       <c r="A366" t="s">
         <v>24</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="2" t="s">
         <v>918</v>
       </c>
       <c r="C366" t="s">
@@ -23461,7 +23456,7 @@
       <c r="A367" t="s">
         <v>355</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C367" t="s">
@@ -23490,7 +23485,7 @@
       <c r="A368" t="s">
         <v>356</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C368" t="s">
@@ -23519,7 +23514,7 @@
       <c r="A369" t="s">
         <v>241</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C369" t="s">
@@ -23548,7 +23543,7 @@
       <c r="A370" t="s">
         <v>357</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C370" t="s">
@@ -23577,7 +23572,7 @@
       <c r="A371" t="s">
         <v>358</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C371" t="s">
@@ -23606,7 +23601,7 @@
       <c r="A372" t="s">
         <v>359</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C372" t="s">
@@ -23635,7 +23630,7 @@
       <c r="A373" t="s">
         <v>360</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C373" t="s">
@@ -23664,7 +23659,7 @@
       <c r="A374" t="s">
         <v>361</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374" s="2" t="s">
         <v>927</v>
       </c>
       <c r="C374" t="s">
@@ -23693,7 +23688,7 @@
       <c r="A375" t="s">
         <v>362</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C375" t="s">
@@ -23722,7 +23717,7 @@
       <c r="A376" t="s">
         <v>363</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C376" t="s">
@@ -23751,7 +23746,7 @@
       <c r="A377" t="s">
         <v>364</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C377" t="s">
@@ -23780,7 +23775,7 @@
       <c r="A378" t="s">
         <v>365</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C378" t="s">
@@ -23809,7 +23804,7 @@
       <c r="A379" t="s">
         <v>366</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C379" t="s">
@@ -23838,7 +23833,7 @@
       <c r="A380" t="s">
         <v>367</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C380" t="s">
@@ -23867,7 +23862,7 @@
       <c r="A381" t="s">
         <v>368</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C381" t="s">
@@ -23896,7 +23891,7 @@
       <c r="A382" t="s">
         <v>369</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C382" t="s">
@@ -23925,7 +23920,7 @@
       <c r="A383" t="s">
         <v>370</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C383" t="s">
@@ -23954,7 +23949,7 @@
       <c r="A384" t="s">
         <v>80</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C384" t="s">
@@ -23983,7 +23978,7 @@
       <c r="A385" t="s">
         <v>371</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385" s="2" t="s">
         <v>931</v>
       </c>
       <c r="C385" t="s">
@@ -24012,7 +24007,7 @@
       <c r="A386" t="s">
         <v>372</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="2">
         <v>2015</v>
       </c>
       <c r="C386" t="s">
@@ -24041,7 +24036,7 @@
       <c r="A387" t="s">
         <v>373</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C387" t="s">
@@ -24070,7 +24065,7 @@
       <c r="A388" t="s">
         <v>374</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C388" t="s">
@@ -24099,7 +24094,7 @@
       <c r="A389" t="s">
         <v>375</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C389" t="s">
@@ -24128,7 +24123,7 @@
       <c r="A390" t="s">
         <v>376</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C390" t="s">
@@ -24157,7 +24152,7 @@
       <c r="A391" t="s">
         <v>211</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C391" t="s">
@@ -24186,7 +24181,7 @@
       <c r="A392" t="s">
         <v>377</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C392" t="s">
@@ -24215,7 +24210,7 @@
       <c r="A393" t="s">
         <v>378</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C393" t="s">
@@ -24244,7 +24239,7 @@
       <c r="A394" t="s">
         <v>379</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B394" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C394" t="s">
@@ -24273,7 +24268,7 @@
       <c r="A395" t="s">
         <v>141</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C395" t="s">
@@ -24302,7 +24297,7 @@
       <c r="A396" t="s">
         <v>380</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C396" t="s">
@@ -24331,7 +24326,7 @@
       <c r="A397" t="s">
         <v>381</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="2" t="s">
         <v>930</v>
       </c>
       <c r="C397" t="s">
@@ -24360,7 +24355,7 @@
       <c r="A398" t="s">
         <v>382</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C398" t="s">
@@ -24389,7 +24384,7 @@
       <c r="A399" t="s">
         <v>383</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C399" t="s">
@@ -24418,7 +24413,7 @@
       <c r="A400" t="s">
         <v>384</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="2">
         <v>2015</v>
       </c>
       <c r="C400" t="s">
@@ -24447,7 +24442,7 @@
       <c r="A401" t="s">
         <v>385</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C401" t="s">
@@ -24476,7 +24471,7 @@
       <c r="A402" t="s">
         <v>386</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C402" t="s">
@@ -24505,7 +24500,7 @@
       <c r="A403" t="s">
         <v>387</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C403" t="s">
@@ -24534,7 +24529,7 @@
       <c r="A404" t="s">
         <v>322</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B404" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C404" t="s">
@@ -24563,7 +24558,7 @@
       <c r="A405" t="s">
         <v>195</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C405" t="s">
@@ -24592,7 +24587,7 @@
       <c r="A406" t="s">
         <v>388</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C406" t="s">
@@ -24621,7 +24616,7 @@
       <c r="A407" t="s">
         <v>389</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C407" t="s">
@@ -24650,7 +24645,7 @@
       <c r="A408" t="s">
         <v>390</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B408" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C408" t="s">
@@ -24679,7 +24674,7 @@
       <c r="A409" t="s">
         <v>391</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B409" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C409" t="s">
@@ -24708,7 +24703,7 @@
       <c r="A410" t="s">
         <v>392</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B410" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C410" t="s">
@@ -24737,7 +24732,7 @@
       <c r="A411" t="s">
         <v>393</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B411" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C411" t="s">
@@ -24766,7 +24761,7 @@
       <c r="A412" t="s">
         <v>394</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C412" t="s">
@@ -24795,7 +24790,7 @@
       <c r="A413" t="s">
         <v>395</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C413" t="s">
@@ -24824,7 +24819,7 @@
       <c r="A414" t="s">
         <v>396</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C414" t="s">
@@ -24853,7 +24848,7 @@
       <c r="A415" t="s">
         <v>397</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C415" t="s">
@@ -24882,7 +24877,7 @@
       <c r="A416" t="s">
         <v>398</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C416" t="s">
@@ -24911,7 +24906,7 @@
       <c r="A417" t="s">
         <v>399</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C417" t="s">
@@ -24940,7 +24935,7 @@
       <c r="A418" t="s">
         <v>400</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C418" t="s">
@@ -24969,7 +24964,7 @@
       <c r="A419" t="s">
         <v>401</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C419" t="s">
@@ -24998,7 +24993,7 @@
       <c r="A420" t="s">
         <v>402</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B420" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C420" t="s">
@@ -25027,7 +25022,7 @@
       <c r="A421" t="s">
         <v>403</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B421" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C421" t="s">
@@ -25056,7 +25051,7 @@
       <c r="A422" t="s">
         <v>404</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="2" t="s">
         <v>927</v>
       </c>
       <c r="C422" t="s">
@@ -25085,7 +25080,7 @@
       <c r="A423" t="s">
         <v>405</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C423" t="s">
@@ -25114,7 +25109,7 @@
       <c r="A424" t="s">
         <v>385</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C424" t="s">
@@ -25143,7 +25138,7 @@
       <c r="A425" t="s">
         <v>406</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C425" t="s">
@@ -25172,7 +25167,7 @@
       <c r="A426" t="s">
         <v>407</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C426" t="s">
@@ -25201,7 +25196,7 @@
       <c r="A427" t="s">
         <v>408</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C427" t="s">
@@ -25230,7 +25225,7 @@
       <c r="A428" t="s">
         <v>409</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C428" t="s">
@@ -25259,7 +25254,7 @@
       <c r="A429" t="s">
         <v>410</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C429" t="s">
@@ -25288,7 +25283,7 @@
       <c r="A430" t="s">
         <v>411</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C430" t="s">
@@ -25317,7 +25312,7 @@
       <c r="A431" t="s">
         <v>231</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B431" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C431" t="s">
@@ -25346,7 +25341,7 @@
       <c r="A432" t="s">
         <v>412</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C432" t="s">
@@ -25375,7 +25370,7 @@
       <c r="A433" t="s">
         <v>413</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B433" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C433" t="s">
@@ -25404,7 +25399,7 @@
       <c r="A434" t="s">
         <v>202</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B434" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C434" t="s">
@@ -25433,7 +25428,7 @@
       <c r="A435" t="s">
         <v>414</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B435" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C435" t="s">
@@ -25462,7 +25457,7 @@
       <c r="A436" t="s">
         <v>415</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C436" t="s">
@@ -25491,7 +25486,7 @@
       <c r="A437" t="s">
         <v>416</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B437" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C437" t="s">
@@ -25520,7 +25515,7 @@
       <c r="A438" t="s">
         <v>417</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B438" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C438" t="s">
@@ -25549,7 +25544,7 @@
       <c r="A439" t="s">
         <v>418</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B439" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C439" t="s">
@@ -25578,7 +25573,7 @@
       <c r="A440" t="s">
         <v>419</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B440" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C440" t="s">
@@ -25607,7 +25602,7 @@
       <c r="A441" t="s">
         <v>420</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B441" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C441" t="s">
@@ -25636,7 +25631,7 @@
       <c r="A442" t="s">
         <v>421</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B442" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C442" t="s">
@@ -25665,7 +25660,7 @@
       <c r="A443" t="s">
         <v>422</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B443" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C443" t="s">
@@ -25694,7 +25689,7 @@
       <c r="A444" t="s">
         <v>423</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B444" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C444" t="s">
@@ -25723,7 +25718,7 @@
       <c r="A445" t="s">
         <v>424</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B445" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C445" t="s">
@@ -25752,7 +25747,7 @@
       <c r="A446" t="s">
         <v>425</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B446" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C446" t="s">
@@ -25781,7 +25776,7 @@
       <c r="A447" t="s">
         <v>426</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C447" t="s">
@@ -25810,7 +25805,7 @@
       <c r="A448" t="s">
         <v>141</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B448" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C448" t="s">
@@ -25839,7 +25834,7 @@
       <c r="A449" t="s">
         <v>427</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B449" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C449" t="s">
@@ -25868,7 +25863,7 @@
       <c r="A450" t="s">
         <v>428</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B450" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C450" t="s">
@@ -25897,7 +25892,7 @@
       <c r="A451" t="s">
         <v>429</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B451" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C451" t="s">
@@ -25926,7 +25921,7 @@
       <c r="A452" t="s">
         <v>430</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B452" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C452" t="s">
@@ -25955,7 +25950,7 @@
       <c r="A453" t="s">
         <v>431</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B453" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C453" t="s">
@@ -25984,7 +25979,7 @@
       <c r="A454" t="s">
         <v>432</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B454" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C454" t="s">
@@ -26013,7 +26008,7 @@
       <c r="A455" t="s">
         <v>433</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B455" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C455" t="s">
@@ -26042,7 +26037,7 @@
       <c r="A456" t="s">
         <v>434</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B456" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C456" t="s">
@@ -26071,7 +26066,7 @@
       <c r="A457" t="s">
         <v>435</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B457" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C457" t="s">
@@ -26100,7 +26095,7 @@
       <c r="A458" t="s">
         <v>436</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B458" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C458" t="s">
@@ -26129,7 +26124,7 @@
       <c r="A459" t="s">
         <v>437</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B459" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C459" t="s">
@@ -26158,7 +26153,7 @@
       <c r="A460" t="s">
         <v>438</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B460" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C460" t="s">
@@ -26187,7 +26182,7 @@
       <c r="A461" t="s">
         <v>439</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B461" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C461" t="s">
@@ -26216,7 +26211,7 @@
       <c r="A462" t="s">
         <v>440</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B462" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C462" t="s">
@@ -26245,7 +26240,7 @@
       <c r="A463" t="s">
         <v>441</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B463" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C463" t="s">
@@ -26274,7 +26269,7 @@
       <c r="A464" t="s">
         <v>142</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B464" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C464" t="s">
@@ -26303,7 +26298,7 @@
       <c r="A465" t="s">
         <v>442</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B465" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C465" t="s">
@@ -26332,7 +26327,7 @@
       <c r="A466" t="s">
         <v>443</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B466" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C466" t="s">
@@ -26361,7 +26356,7 @@
       <c r="A467" t="s">
         <v>444</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B467" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C467" t="s">
@@ -26390,7 +26385,7 @@
       <c r="A468" t="s">
         <v>445</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B468" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C468" t="s">
@@ -26419,7 +26414,7 @@
       <c r="A469" t="s">
         <v>446</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B469" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C469" t="s">
@@ -26448,7 +26443,7 @@
       <c r="A470" t="s">
         <v>447</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B470" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C470" t="s">
@@ -26477,7 +26472,7 @@
       <c r="A471" t="s">
         <v>448</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B471" s="2" t="s">
         <v>930</v>
       </c>
       <c r="C471" t="s">
@@ -26506,7 +26501,7 @@
       <c r="A472" t="s">
         <v>449</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B472" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C472" t="s">
@@ -26535,7 +26530,7 @@
       <c r="A473" t="s">
         <v>450</v>
       </c>
-      <c r="B473" t="s">
+      <c r="B473" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C473" t="s">
@@ -26564,7 +26559,7 @@
       <c r="A474" t="s">
         <v>451</v>
       </c>
-      <c r="B474" t="s">
+      <c r="B474" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C474" t="s">
@@ -26593,7 +26588,7 @@
       <c r="A475" t="s">
         <v>452</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B475" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C475" t="s">
@@ -26622,7 +26617,7 @@
       <c r="A476" t="s">
         <v>453</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B476" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C476" t="s">
@@ -26651,7 +26646,7 @@
       <c r="A477" t="s">
         <v>454</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B477" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C477" t="s">
@@ -26680,7 +26675,7 @@
       <c r="A478" t="s">
         <v>455</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B478" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C478" t="s">
@@ -26709,7 +26704,7 @@
       <c r="A479" t="s">
         <v>456</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B479" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C479" t="s">
@@ -26738,7 +26733,7 @@
       <c r="A480" t="s">
         <v>457</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B480" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C480" t="s">
@@ -26767,7 +26762,7 @@
       <c r="A481" t="s">
         <v>458</v>
       </c>
-      <c r="B481">
+      <c r="B481" s="2">
         <v>2015</v>
       </c>
       <c r="C481" t="s">
@@ -26796,7 +26791,7 @@
       <c r="A482" t="s">
         <v>459</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B482" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C482" t="s">
@@ -26825,7 +26820,7 @@
       <c r="A483" t="s">
         <v>460</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B483" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C483" t="s">
@@ -26854,7 +26849,7 @@
       <c r="A484" t="s">
         <v>348</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B484" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C484" t="s">
@@ -26883,7 +26878,7 @@
       <c r="A485" t="s">
         <v>461</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B485" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C485" t="s">
@@ -26912,7 +26907,7 @@
       <c r="A486" t="s">
         <v>462</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B486" s="2" t="s">
         <v>915</v>
       </c>
       <c r="D486" t="s">
@@ -26938,7 +26933,7 @@
       <c r="A487" t="s">
         <v>463</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B487" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C487" t="s">
@@ -26967,7 +26962,7 @@
       <c r="A488" t="s">
         <v>464</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B488" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C488" t="s">
@@ -26996,7 +26991,7 @@
       <c r="A489" t="s">
         <v>465</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B489" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C489" t="s">
@@ -27025,7 +27020,7 @@
       <c r="A490" t="s">
         <v>466</v>
       </c>
-      <c r="B490" t="s">
+      <c r="B490" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C490" t="s">
@@ -27054,7 +27049,7 @@
       <c r="A491" t="s">
         <v>467</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B491" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C491" t="s">
@@ -27083,7 +27078,7 @@
       <c r="A492" t="s">
         <v>455</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B492" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C492" t="s">
@@ -27112,7 +27107,7 @@
       <c r="A493" t="s">
         <v>131</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B493" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C493" t="s">
@@ -27141,7 +27136,7 @@
       <c r="A494" t="s">
         <v>468</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B494" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C494" t="s">
@@ -27170,7 +27165,7 @@
       <c r="A495" t="s">
         <v>469</v>
       </c>
-      <c r="B495">
+      <c r="B495" s="2">
         <v>2015</v>
       </c>
       <c r="C495" t="s">
@@ -27199,7 +27194,7 @@
       <c r="A496" t="s">
         <v>470</v>
       </c>
-      <c r="B496" t="s">
+      <c r="B496" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C496" t="s">
@@ -27228,7 +27223,7 @@
       <c r="A497" t="s">
         <v>471</v>
       </c>
-      <c r="B497">
+      <c r="B497" s="2">
         <v>2015</v>
       </c>
       <c r="C497" t="s">
@@ -27257,7 +27252,7 @@
       <c r="A498" t="s">
         <v>472</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B498" s="2" t="s">
         <v>919</v>
       </c>
       <c r="D498" t="s">
@@ -27283,7 +27278,7 @@
       <c r="A499" t="s">
         <v>473</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B499" s="2" t="s">
         <v>916</v>
       </c>
       <c r="D499" t="s">
@@ -27309,7 +27304,7 @@
       <c r="A500" t="s">
         <v>474</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B500" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C500" t="s">
@@ -27338,7 +27333,7 @@
       <c r="A501" t="s">
         <v>405</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B501" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C501" t="s">
@@ -27367,7 +27362,7 @@
       <c r="A502" t="s">
         <v>475</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B502" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C502" t="s">
@@ -27396,7 +27391,7 @@
       <c r="A503" t="s">
         <v>476</v>
       </c>
-      <c r="B503" t="s">
+      <c r="B503" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C503" t="s">
@@ -27425,7 +27420,7 @@
       <c r="A504" t="s">
         <v>204</v>
       </c>
-      <c r="B504">
+      <c r="B504" s="2">
         <v>2015</v>
       </c>
       <c r="C504" t="s">
@@ -27454,7 +27449,7 @@
       <c r="A505" t="s">
         <v>477</v>
       </c>
-      <c r="B505" t="s">
+      <c r="B505" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C505" t="s">
@@ -27483,7 +27478,7 @@
       <c r="A506" t="s">
         <v>478</v>
       </c>
-      <c r="B506" t="s">
+      <c r="B506" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C506" t="s">
@@ -27512,7 +27507,7 @@
       <c r="A507" t="s">
         <v>479</v>
       </c>
-      <c r="B507" t="s">
+      <c r="B507" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C507" t="s">
@@ -27541,7 +27536,7 @@
       <c r="A508" t="s">
         <v>480</v>
       </c>
-      <c r="B508" t="s">
+      <c r="B508" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C508" t="s">
@@ -27570,7 +27565,7 @@
       <c r="A509" t="s">
         <v>481</v>
       </c>
-      <c r="B509" t="s">
+      <c r="B509" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C509" t="s">
@@ -27599,7 +27594,7 @@
       <c r="A510" t="s">
         <v>482</v>
       </c>
-      <c r="B510" t="s">
+      <c r="B510" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C510" t="s">
@@ -27628,7 +27623,7 @@
       <c r="A511" t="s">
         <v>395</v>
       </c>
-      <c r="B511">
+      <c r="B511" s="2">
         <v>2015</v>
       </c>
       <c r="C511" t="s">
@@ -27657,7 +27652,7 @@
       <c r="A512" t="s">
         <v>483</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B512" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C512" t="s">
@@ -27686,7 +27681,7 @@
       <c r="A513" t="s">
         <v>484</v>
       </c>
-      <c r="B513">
+      <c r="B513" s="2">
         <v>2015</v>
       </c>
       <c r="C513" t="s">
@@ -27715,7 +27710,7 @@
       <c r="A514" t="s">
         <v>485</v>
       </c>
-      <c r="B514" t="s">
+      <c r="B514" s="2" t="s">
         <v>920</v>
       </c>
       <c r="D514" t="s">
@@ -27741,7 +27736,7 @@
       <c r="A515" t="s">
         <v>486</v>
       </c>
-      <c r="B515" t="s">
+      <c r="B515" s="2" t="s">
         <v>915</v>
       </c>
       <c r="D515" t="s">
@@ -27767,7 +27762,7 @@
       <c r="A516" t="s">
         <v>487</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B516" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C516" t="s">
@@ -27796,7 +27791,7 @@
       <c r="A517" t="s">
         <v>488</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B517" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C517" t="s">
@@ -27825,7 +27820,7 @@
       <c r="A518" t="s">
         <v>489</v>
       </c>
-      <c r="B518" t="s">
+      <c r="B518" s="2" t="s">
         <v>915</v>
       </c>
       <c r="D518" t="s">
@@ -27851,7 +27846,7 @@
       <c r="A519" t="s">
         <v>490</v>
       </c>
-      <c r="B519" t="s">
+      <c r="B519" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C519" t="s">
@@ -27880,7 +27875,7 @@
       <c r="A520" t="s">
         <v>491</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B520" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C520" t="s">
@@ -27909,7 +27904,7 @@
       <c r="A521" t="s">
         <v>492</v>
       </c>
-      <c r="B521" t="s">
+      <c r="B521" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C521" t="s">
@@ -27938,7 +27933,7 @@
       <c r="A522" t="s">
         <v>493</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B522" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C522" t="s">
@@ -27967,7 +27962,7 @@
       <c r="A523" t="s">
         <v>494</v>
       </c>
-      <c r="B523" t="s">
+      <c r="B523" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C523" t="s">
@@ -27996,7 +27991,7 @@
       <c r="A524" t="s">
         <v>495</v>
       </c>
-      <c r="B524">
+      <c r="B524" s="2">
         <v>2015</v>
       </c>
       <c r="C524" t="s">
@@ -28025,7 +28020,7 @@
       <c r="A525" t="s">
         <v>496</v>
       </c>
-      <c r="B525" t="s">
+      <c r="B525" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C525" t="s">
@@ -28054,7 +28049,7 @@
       <c r="A526" t="s">
         <v>68</v>
       </c>
-      <c r="B526" t="s">
+      <c r="B526" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C526" t="s">
@@ -28083,7 +28078,7 @@
       <c r="A527" t="s">
         <v>497</v>
       </c>
-      <c r="B527" t="s">
+      <c r="B527" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C527" t="s">
@@ -28112,7 +28107,7 @@
       <c r="A528" t="s">
         <v>498</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B528" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C528" t="s">
@@ -28141,7 +28136,7 @@
       <c r="A529" t="s">
         <v>499</v>
       </c>
-      <c r="B529" t="s">
+      <c r="B529" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C529" t="s">
@@ -28170,7 +28165,7 @@
       <c r="A530" t="s">
         <v>74</v>
       </c>
-      <c r="B530">
+      <c r="B530" s="2">
         <v>2015</v>
       </c>
       <c r="C530" t="s">
@@ -28199,7 +28194,7 @@
       <c r="A531" t="s">
         <v>500</v>
       </c>
-      <c r="B531" t="s">
+      <c r="B531" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C531" t="s">
@@ -28228,7 +28223,7 @@
       <c r="A532" t="s">
         <v>501</v>
       </c>
-      <c r="B532">
+      <c r="B532" s="2">
         <v>2015</v>
       </c>
       <c r="C532" t="s">
@@ -28257,7 +28252,7 @@
       <c r="A533" t="s">
         <v>502</v>
       </c>
-      <c r="B533">
+      <c r="B533" s="2">
         <v>2015</v>
       </c>
       <c r="C533" t="s">
@@ -28286,7 +28281,7 @@
       <c r="A534" t="s">
         <v>503</v>
       </c>
-      <c r="B534" t="s">
+      <c r="B534" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C534" t="s">
@@ -28315,7 +28310,7 @@
       <c r="A535" t="s">
         <v>504</v>
       </c>
-      <c r="B535">
+      <c r="B535" s="2">
         <v>2015</v>
       </c>
       <c r="C535" t="s">
@@ -28344,7 +28339,7 @@
       <c r="A536" t="s">
         <v>505</v>
       </c>
-      <c r="B536">
+      <c r="B536" s="2">
         <v>2015</v>
       </c>
       <c r="C536" t="s">
@@ -28373,7 +28368,7 @@
       <c r="A537" t="s">
         <v>333</v>
       </c>
-      <c r="B537" t="s">
+      <c r="B537" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C537" t="s">
@@ -28402,7 +28397,7 @@
       <c r="A538" t="s">
         <v>506</v>
       </c>
-      <c r="B538" t="s">
+      <c r="B538" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C538" t="s">
@@ -28431,7 +28426,7 @@
       <c r="A539" t="s">
         <v>507</v>
       </c>
-      <c r="B539" t="s">
+      <c r="B539" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C539" t="s">
@@ -28460,7 +28455,7 @@
       <c r="A540" t="s">
         <v>499</v>
       </c>
-      <c r="B540">
+      <c r="B540" s="2">
         <v>2015</v>
       </c>
       <c r="C540" t="s">
@@ -28489,7 +28484,7 @@
       <c r="A541" t="s">
         <v>386</v>
       </c>
-      <c r="B541" t="s">
+      <c r="B541" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C541" t="s">
@@ -28518,7 +28513,7 @@
       <c r="A542" t="s">
         <v>508</v>
       </c>
-      <c r="B542">
+      <c r="B542" s="2">
         <v>2015</v>
       </c>
       <c r="C542" t="s">
@@ -28547,7 +28542,7 @@
       <c r="A543" t="s">
         <v>509</v>
       </c>
-      <c r="B543">
+      <c r="B543" s="2">
         <v>2015</v>
       </c>
       <c r="C543" t="s">
@@ -28576,7 +28571,7 @@
       <c r="A544" t="s">
         <v>510</v>
       </c>
-      <c r="B544">
+      <c r="B544" s="2">
         <v>2015</v>
       </c>
       <c r="C544" t="s">
@@ -28605,7 +28600,7 @@
       <c r="A545" t="s">
         <v>511</v>
       </c>
-      <c r="B545" t="s">
+      <c r="B545" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C545" t="s">
@@ -28634,7 +28629,7 @@
       <c r="A546" t="s">
         <v>512</v>
       </c>
-      <c r="B546">
+      <c r="B546" s="2">
         <v>2015</v>
       </c>
       <c r="C546" t="s">
@@ -28663,7 +28658,7 @@
       <c r="A547" t="s">
         <v>513</v>
       </c>
-      <c r="B547" t="s">
+      <c r="B547" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C547" t="s">
@@ -28692,7 +28687,7 @@
       <c r="A548" t="s">
         <v>403</v>
       </c>
-      <c r="B548" t="s">
+      <c r="B548" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C548" t="s">
@@ -28721,7 +28716,7 @@
       <c r="A549" t="s">
         <v>514</v>
       </c>
-      <c r="B549" t="s">
+      <c r="B549" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C549" t="s">
@@ -28750,7 +28745,7 @@
       <c r="A550" t="s">
         <v>515</v>
       </c>
-      <c r="B550" t="s">
+      <c r="B550" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C550" t="s">
@@ -28779,7 +28774,7 @@
       <c r="A551" t="s">
         <v>516</v>
       </c>
-      <c r="B551" t="s">
+      <c r="B551" s="2" t="s">
         <v>929</v>
       </c>
       <c r="C551" t="s">
@@ -28808,7 +28803,7 @@
       <c r="A552" t="s">
         <v>517</v>
       </c>
-      <c r="B552">
+      <c r="B552" s="2">
         <v>2015</v>
       </c>
       <c r="C552" t="s">
@@ -28837,7 +28832,7 @@
       <c r="A553" t="s">
         <v>316</v>
       </c>
-      <c r="B553" t="s">
+      <c r="B553" s="2" t="s">
         <v>930</v>
       </c>
       <c r="C553" t="s">
@@ -28866,7 +28861,7 @@
       <c r="A554" t="s">
         <v>518</v>
       </c>
-      <c r="B554" t="s">
+      <c r="B554" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C554" t="s">
@@ -28895,7 +28890,7 @@
       <c r="A555" t="s">
         <v>519</v>
       </c>
-      <c r="B555" t="s">
+      <c r="B555" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C555" t="s">
@@ -28924,7 +28919,7 @@
       <c r="A556" t="s">
         <v>520</v>
       </c>
-      <c r="B556">
+      <c r="B556" s="2">
         <v>2015</v>
       </c>
       <c r="C556" t="s">
@@ -28953,7 +28948,7 @@
       <c r="A557" t="s">
         <v>521</v>
       </c>
-      <c r="B557" t="s">
+      <c r="B557" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C557" t="s">
@@ -28982,7 +28977,7 @@
       <c r="A558" t="s">
         <v>172</v>
       </c>
-      <c r="B558" t="s">
+      <c r="B558" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C558" t="s">
@@ -29011,7 +29006,7 @@
       <c r="A559" t="s">
         <v>522</v>
       </c>
-      <c r="B559">
+      <c r="B559" s="2">
         <v>2015</v>
       </c>
       <c r="C559" t="s">
@@ -29040,7 +29035,7 @@
       <c r="A560" t="s">
         <v>523</v>
       </c>
-      <c r="B560" t="s">
+      <c r="B560" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C560" t="s">
@@ -29069,7 +29064,7 @@
       <c r="A561" t="s">
         <v>524</v>
       </c>
-      <c r="B561" t="s">
+      <c r="B561" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C561" t="s">
@@ -29098,7 +29093,7 @@
       <c r="A562" t="s">
         <v>525</v>
       </c>
-      <c r="B562" t="s">
+      <c r="B562" s="2" t="s">
         <v>919</v>
       </c>
       <c r="D562" t="s">
@@ -29124,7 +29119,7 @@
       <c r="A563" t="s">
         <v>526</v>
       </c>
-      <c r="B563" t="s">
+      <c r="B563" s="2" t="s">
         <v>927</v>
       </c>
       <c r="C563" t="s">
@@ -29153,7 +29148,7 @@
       <c r="A564" t="s">
         <v>527</v>
       </c>
-      <c r="B564" t="s">
+      <c r="B564" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C564" t="s">
@@ -29182,7 +29177,7 @@
       <c r="A565" t="s">
         <v>528</v>
       </c>
-      <c r="B565" t="s">
+      <c r="B565" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C565" t="s">
@@ -29211,7 +29206,7 @@
       <c r="A566" t="s">
         <v>529</v>
       </c>
-      <c r="B566" t="s">
+      <c r="B566" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C566" t="s">
@@ -29240,7 +29235,7 @@
       <c r="A567" t="s">
         <v>530</v>
       </c>
-      <c r="B567" t="s">
+      <c r="B567" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C567" t="s">
@@ -29269,7 +29264,7 @@
       <c r="A568" t="s">
         <v>531</v>
       </c>
-      <c r="B568" t="s">
+      <c r="B568" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C568" t="s">
@@ -29298,7 +29293,7 @@
       <c r="A569" t="s">
         <v>532</v>
       </c>
-      <c r="B569" t="s">
+      <c r="B569" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C569" t="s">
@@ -29327,7 +29322,7 @@
       <c r="A570" t="s">
         <v>533</v>
       </c>
-      <c r="B570" t="s">
+      <c r="B570" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C570" t="s">
@@ -29356,7 +29351,7 @@
       <c r="A571" t="s">
         <v>534</v>
       </c>
-      <c r="B571" t="s">
+      <c r="B571" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C571" t="s">
@@ -29385,7 +29380,7 @@
       <c r="A572" t="s">
         <v>535</v>
       </c>
-      <c r="B572">
+      <c r="B572" s="2">
         <v>2015</v>
       </c>
       <c r="C572" t="s">
@@ -29414,7 +29409,7 @@
       <c r="A573" t="s">
         <v>391</v>
       </c>
-      <c r="B573">
+      <c r="B573" s="2">
         <v>2015</v>
       </c>
       <c r="C573" t="s">
@@ -29443,7 +29438,7 @@
       <c r="A574" t="s">
         <v>536</v>
       </c>
-      <c r="B574">
+      <c r="B574" s="2">
         <v>2015</v>
       </c>
       <c r="C574" t="s">
@@ -29472,7 +29467,7 @@
       <c r="A575" t="s">
         <v>537</v>
       </c>
-      <c r="B575" t="s">
+      <c r="B575" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C575" t="s">
@@ -29501,7 +29496,7 @@
       <c r="A576" t="s">
         <v>538</v>
       </c>
-      <c r="B576">
+      <c r="B576" s="2">
         <v>2015</v>
       </c>
       <c r="C576" t="s">
@@ -29530,7 +29525,7 @@
       <c r="A577" t="s">
         <v>539</v>
       </c>
-      <c r="B577" t="s">
+      <c r="B577" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C577" t="s">
@@ -29559,7 +29554,7 @@
       <c r="A578" t="s">
         <v>125</v>
       </c>
-      <c r="B578" t="s">
+      <c r="B578" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C578" t="s">
@@ -29588,7 +29583,7 @@
       <c r="A579" t="s">
         <v>540</v>
       </c>
-      <c r="B579" t="s">
+      <c r="B579" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C579" t="s">
@@ -29617,7 +29612,7 @@
       <c r="A580" t="s">
         <v>541</v>
       </c>
-      <c r="B580" t="s">
+      <c r="B580" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C580" t="s">
@@ -29646,7 +29641,7 @@
       <c r="A581" t="s">
         <v>542</v>
       </c>
-      <c r="B581" t="s">
+      <c r="B581" s="2" t="s">
         <v>923</v>
       </c>
       <c r="C581" t="s">
@@ -29675,7 +29670,7 @@
       <c r="A582" t="s">
         <v>543</v>
       </c>
-      <c r="B582">
+      <c r="B582" s="2">
         <v>2015</v>
       </c>
       <c r="C582" t="s">
@@ -29704,7 +29699,7 @@
       <c r="A583" t="s">
         <v>350</v>
       </c>
-      <c r="B583" t="s">
+      <c r="B583" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C583" t="s">
@@ -29733,7 +29728,7 @@
       <c r="A584" t="s">
         <v>544</v>
       </c>
-      <c r="B584">
+      <c r="B584" s="2">
         <v>2015</v>
       </c>
       <c r="C584" t="s">
@@ -29762,7 +29757,7 @@
       <c r="A585" t="s">
         <v>545</v>
       </c>
-      <c r="B585" t="s">
+      <c r="B585" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C585" t="s">
@@ -29791,7 +29786,7 @@
       <c r="A586" t="s">
         <v>546</v>
       </c>
-      <c r="B586" t="s">
+      <c r="B586" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C586" t="s">
@@ -29820,7 +29815,7 @@
       <c r="A587" t="s">
         <v>330</v>
       </c>
-      <c r="B587" t="s">
+      <c r="B587" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C587" t="s">
@@ -29849,7 +29844,7 @@
       <c r="A588" t="s">
         <v>547</v>
       </c>
-      <c r="B588" t="s">
+      <c r="B588" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C588" t="s">
@@ -29878,7 +29873,7 @@
       <c r="A589" t="s">
         <v>548</v>
       </c>
-      <c r="B589" t="s">
+      <c r="B589" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C589" t="s">
@@ -29907,7 +29902,7 @@
       <c r="A590" t="s">
         <v>549</v>
       </c>
-      <c r="B590" t="s">
+      <c r="B590" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C590" t="s">
@@ -29936,7 +29931,7 @@
       <c r="A591" t="s">
         <v>550</v>
       </c>
-      <c r="B591" t="s">
+      <c r="B591" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C591" t="s">
@@ -29965,7 +29960,7 @@
       <c r="A592" t="s">
         <v>551</v>
       </c>
-      <c r="B592" t="s">
+      <c r="B592" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C592" t="s">
@@ -29994,7 +29989,7 @@
       <c r="A593" t="s">
         <v>552</v>
       </c>
-      <c r="B593" t="s">
+      <c r="B593" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C593" t="s">
@@ -30023,7 +30018,7 @@
       <c r="A594" t="s">
         <v>553</v>
       </c>
-      <c r="B594" t="s">
+      <c r="B594" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C594" t="s">
@@ -30052,7 +30047,7 @@
       <c r="A595" t="s">
         <v>554</v>
       </c>
-      <c r="B595" t="s">
+      <c r="B595" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C595" t="s">
@@ -30081,7 +30076,7 @@
       <c r="A596" t="s">
         <v>555</v>
       </c>
-      <c r="B596" t="s">
+      <c r="B596" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C596" t="s">
@@ -30110,7 +30105,7 @@
       <c r="A597" t="s">
         <v>556</v>
       </c>
-      <c r="B597" t="s">
+      <c r="B597" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C597" t="s">
@@ -30139,7 +30134,7 @@
       <c r="A598" t="s">
         <v>557</v>
       </c>
-      <c r="B598" t="s">
+      <c r="B598" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C598" t="s">
@@ -30168,7 +30163,7 @@
       <c r="A599" t="s">
         <v>558</v>
       </c>
-      <c r="B599">
+      <c r="B599" s="2">
         <v>2015</v>
       </c>
       <c r="C599" t="s">
@@ -30197,7 +30192,7 @@
       <c r="A600" t="s">
         <v>559</v>
       </c>
-      <c r="B600" t="s">
+      <c r="B600" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C600" t="s">
@@ -30226,7 +30221,7 @@
       <c r="A601" t="s">
         <v>560</v>
       </c>
-      <c r="B601">
+      <c r="B601" s="2">
         <v>2015</v>
       </c>
       <c r="C601" t="s">
@@ -30255,7 +30250,7 @@
       <c r="A602" t="s">
         <v>561</v>
       </c>
-      <c r="B602">
+      <c r="B602" s="2">
         <v>2015</v>
       </c>
       <c r="C602" t="s">
@@ -30284,7 +30279,7 @@
       <c r="A603" t="s">
         <v>484</v>
       </c>
-      <c r="B603">
+      <c r="B603" s="2">
         <v>2015</v>
       </c>
       <c r="C603" t="s">
@@ -30313,7 +30308,7 @@
       <c r="A604" t="s">
         <v>562</v>
       </c>
-      <c r="B604" t="s">
+      <c r="B604" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C604" t="s">
@@ -30342,7 +30337,7 @@
       <c r="A605" t="s">
         <v>563</v>
       </c>
-      <c r="B605" t="s">
+      <c r="B605" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C605" t="s">
@@ -30371,7 +30366,7 @@
       <c r="A606" t="s">
         <v>423</v>
       </c>
-      <c r="B606" t="s">
+      <c r="B606" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C606" t="s">
@@ -30400,7 +30395,7 @@
       <c r="A607" t="s">
         <v>420</v>
       </c>
-      <c r="B607" t="s">
+      <c r="B607" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C607" t="s">
@@ -30429,7 +30424,7 @@
       <c r="A608" t="s">
         <v>564</v>
       </c>
-      <c r="B608" t="s">
+      <c r="B608" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C608" t="s">
@@ -30458,7 +30453,7 @@
       <c r="A609" t="s">
         <v>565</v>
       </c>
-      <c r="B609" t="s">
+      <c r="B609" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C609" t="s">
@@ -30487,7 +30482,7 @@
       <c r="A610" t="s">
         <v>566</v>
       </c>
-      <c r="B610" t="s">
+      <c r="B610" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C610" t="s">
@@ -30516,7 +30511,7 @@
       <c r="A611" t="s">
         <v>567</v>
       </c>
-      <c r="B611">
+      <c r="B611" s="2">
         <v>2015</v>
       </c>
       <c r="C611" t="s">
@@ -30545,7 +30540,7 @@
       <c r="A612" t="s">
         <v>568</v>
       </c>
-      <c r="B612">
+      <c r="B612" s="2">
         <v>2015</v>
       </c>
       <c r="C612" t="s">
@@ -30574,7 +30569,7 @@
       <c r="A613" t="s">
         <v>569</v>
       </c>
-      <c r="B613" t="s">
+      <c r="B613" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C613" t="s">
@@ -30603,7 +30598,7 @@
       <c r="A614" t="s">
         <v>570</v>
       </c>
-      <c r="B614" t="s">
+      <c r="B614" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C614" t="s">
@@ -30632,7 +30627,7 @@
       <c r="A615" t="s">
         <v>571</v>
       </c>
-      <c r="B615" t="s">
+      <c r="B615" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C615" t="s">
@@ -30661,7 +30656,7 @@
       <c r="A616" t="s">
         <v>572</v>
       </c>
-      <c r="B616" t="s">
+      <c r="B616" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C616" t="s">
@@ -30690,7 +30685,7 @@
       <c r="A617" t="s">
         <v>131</v>
       </c>
-      <c r="B617" t="s">
+      <c r="B617" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C617" t="s">
@@ -30719,7 +30714,7 @@
       <c r="A618" t="s">
         <v>151</v>
       </c>
-      <c r="B618" t="s">
+      <c r="B618" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C618" t="s">
@@ -30748,7 +30743,7 @@
       <c r="A619" t="s">
         <v>75</v>
       </c>
-      <c r="B619">
+      <c r="B619" s="2">
         <v>2015</v>
       </c>
       <c r="C619" t="s">
@@ -30777,7 +30772,7 @@
       <c r="A620" t="s">
         <v>573</v>
       </c>
-      <c r="B620" t="s">
+      <c r="B620" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C620" t="s">
@@ -30806,7 +30801,7 @@
       <c r="A621" t="s">
         <v>574</v>
       </c>
-      <c r="B621" t="s">
+      <c r="B621" s="2" t="s">
         <v>917</v>
       </c>
       <c r="D621" t="s">
@@ -30832,7 +30827,7 @@
       <c r="A622" t="s">
         <v>555</v>
       </c>
-      <c r="B622" t="s">
+      <c r="B622" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C622" t="s">
@@ -30861,7 +30856,7 @@
       <c r="A623" t="s">
         <v>575</v>
       </c>
-      <c r="B623" t="s">
+      <c r="B623" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C623" t="s">
@@ -30890,7 +30885,7 @@
       <c r="A624" t="s">
         <v>576</v>
       </c>
-      <c r="B624" t="s">
+      <c r="B624" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C624" t="s">
@@ -30919,7 +30914,7 @@
       <c r="A625" t="s">
         <v>577</v>
       </c>
-      <c r="B625">
+      <c r="B625" s="2">
         <v>2015</v>
       </c>
       <c r="D625" t="s">
@@ -30945,7 +30940,7 @@
       <c r="A626" t="s">
         <v>578</v>
       </c>
-      <c r="B626" t="s">
+      <c r="B626" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C626" t="s">
@@ -30974,7 +30969,7 @@
       <c r="A627" t="s">
         <v>579</v>
       </c>
-      <c r="B627" t="s">
+      <c r="B627" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C627" t="s">
@@ -31003,7 +30998,7 @@
       <c r="A628" t="s">
         <v>580</v>
       </c>
-      <c r="B628" t="s">
+      <c r="B628" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C628" t="s">
@@ -31032,7 +31027,7 @@
       <c r="A629" t="s">
         <v>581</v>
       </c>
-      <c r="B629" t="s">
+      <c r="B629" s="2" t="s">
         <v>927</v>
       </c>
       <c r="C629" t="s">
@@ -31061,7 +31056,7 @@
       <c r="A630" t="s">
         <v>582</v>
       </c>
-      <c r="B630" t="s">
+      <c r="B630" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C630" t="s">
@@ -31090,7 +31085,7 @@
       <c r="A631" t="s">
         <v>583</v>
       </c>
-      <c r="B631">
+      <c r="B631" s="2">
         <v>2015</v>
       </c>
       <c r="C631" t="s">
@@ -31119,7 +31114,7 @@
       <c r="A632" t="s">
         <v>584</v>
       </c>
-      <c r="B632" t="s">
+      <c r="B632" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C632" t="s">
@@ -31148,7 +31143,7 @@
       <c r="A633" t="s">
         <v>585</v>
       </c>
-      <c r="B633" t="s">
+      <c r="B633" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C633" t="s">
@@ -31177,7 +31172,7 @@
       <c r="A634" t="s">
         <v>586</v>
       </c>
-      <c r="B634" t="s">
+      <c r="B634" s="2" t="s">
         <v>916</v>
       </c>
       <c r="D634" t="s">
@@ -31203,7 +31198,7 @@
       <c r="A635" t="s">
         <v>456</v>
       </c>
-      <c r="B635">
+      <c r="B635" s="2">
         <v>2015</v>
       </c>
       <c r="C635" t="s">
@@ -31232,7 +31227,7 @@
       <c r="A636" t="s">
         <v>587</v>
       </c>
-      <c r="B636" t="s">
+      <c r="B636" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C636" t="s">
@@ -31261,7 +31256,7 @@
       <c r="A637" t="s">
         <v>588</v>
       </c>
-      <c r="B637">
+      <c r="B637" s="2">
         <v>2015</v>
       </c>
       <c r="C637" t="s">
@@ -31290,7 +31285,7 @@
       <c r="A638" t="s">
         <v>589</v>
       </c>
-      <c r="B638" t="s">
+      <c r="B638" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C638" t="s">
@@ -31319,7 +31314,7 @@
       <c r="A639" t="s">
         <v>590</v>
       </c>
-      <c r="B639">
+      <c r="B639" s="2">
         <v>2015</v>
       </c>
       <c r="C639" t="s">
@@ -31348,7 +31343,7 @@
       <c r="A640" t="s">
         <v>591</v>
       </c>
-      <c r="B640" t="s">
+      <c r="B640" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C640" t="s">
@@ -31377,7 +31372,7 @@
       <c r="A641" t="s">
         <v>592</v>
       </c>
-      <c r="B641">
+      <c r="B641" s="2">
         <v>2015</v>
       </c>
       <c r="C641" t="s">
@@ -31406,7 +31401,7 @@
       <c r="A642" t="s">
         <v>593</v>
       </c>
-      <c r="B642">
+      <c r="B642" s="2">
         <v>2015</v>
       </c>
       <c r="C642" t="s">
@@ -31435,7 +31430,7 @@
       <c r="A643" t="s">
         <v>385</v>
       </c>
-      <c r="B643">
+      <c r="B643" s="2">
         <v>2015</v>
       </c>
       <c r="C643" t="s">
@@ -31464,7 +31459,7 @@
       <c r="A644" t="s">
         <v>594</v>
       </c>
-      <c r="B644">
+      <c r="B644" s="2">
         <v>2015</v>
       </c>
       <c r="C644" t="s">
@@ -31493,7 +31488,7 @@
       <c r="A645" t="s">
         <v>595</v>
       </c>
-      <c r="B645" t="s">
+      <c r="B645" s="2" t="s">
         <v>937</v>
       </c>
       <c r="C645" t="s">
@@ -31522,7 +31517,7 @@
       <c r="A646" t="s">
         <v>596</v>
       </c>
-      <c r="B646" t="s">
+      <c r="B646" s="2" t="s">
         <v>915</v>
       </c>
       <c r="D646" t="s">
@@ -31548,7 +31543,7 @@
       <c r="A647" t="s">
         <v>597</v>
       </c>
-      <c r="B647" t="s">
+      <c r="B647" s="2" t="s">
         <v>921</v>
       </c>
       <c r="D647" t="s">
@@ -31574,7 +31569,7 @@
       <c r="A648" t="s">
         <v>598</v>
       </c>
-      <c r="B648" t="s">
+      <c r="B648" s="2" t="s">
         <v>915</v>
       </c>
       <c r="D648" t="s">
@@ -31600,7 +31595,7 @@
       <c r="A649" t="s">
         <v>599</v>
       </c>
-      <c r="B649" t="s">
+      <c r="B649" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C649" t="s">
@@ -31629,7 +31624,7 @@
       <c r="A650" t="s">
         <v>600</v>
       </c>
-      <c r="B650" t="s">
+      <c r="B650" s="2" t="s">
         <v>914</v>
       </c>
       <c r="D650" t="s">
@@ -31655,7 +31650,7 @@
       <c r="A651" t="s">
         <v>601</v>
       </c>
-      <c r="B651">
+      <c r="B651" s="2">
         <v>2015</v>
       </c>
       <c r="C651" t="s">
@@ -31684,7 +31679,7 @@
       <c r="A652" t="s">
         <v>602</v>
       </c>
-      <c r="B652" t="s">
+      <c r="B652" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C652" t="s">
@@ -31713,7 +31708,7 @@
       <c r="A653" t="s">
         <v>603</v>
       </c>
-      <c r="B653" t="s">
+      <c r="B653" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C653" t="s">
@@ -31742,7 +31737,7 @@
       <c r="A654" t="s">
         <v>604</v>
       </c>
-      <c r="B654" t="s">
+      <c r="B654" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C654" t="s">
@@ -31771,7 +31766,7 @@
       <c r="A655" t="s">
         <v>605</v>
       </c>
-      <c r="B655" t="s">
+      <c r="B655" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C655" t="s">
@@ -31800,7 +31795,7 @@
       <c r="A656" t="s">
         <v>606</v>
       </c>
-      <c r="B656">
+      <c r="B656" s="2">
         <v>2015</v>
       </c>
       <c r="D656" t="s">
@@ -31826,7 +31821,7 @@
       <c r="A657" t="s">
         <v>607</v>
       </c>
-      <c r="B657" t="s">
+      <c r="B657" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C657" t="s">
@@ -31855,7 +31850,7 @@
       <c r="A658" t="s">
         <v>608</v>
       </c>
-      <c r="B658" t="s">
+      <c r="B658" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C658" t="s">
@@ -31884,7 +31879,7 @@
       <c r="A659" t="s">
         <v>609</v>
       </c>
-      <c r="B659" t="s">
+      <c r="B659" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C659" t="s">
@@ -31913,7 +31908,7 @@
       <c r="A660" t="s">
         <v>610</v>
       </c>
-      <c r="B660">
+      <c r="B660" s="2">
         <v>2015</v>
       </c>
       <c r="C660" t="s">
@@ -31942,7 +31937,7 @@
       <c r="A661" t="s">
         <v>611</v>
       </c>
-      <c r="B661" t="s">
+      <c r="B661" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C661" t="s">
@@ -31971,7 +31966,7 @@
       <c r="A662" t="s">
         <v>346</v>
       </c>
-      <c r="B662" t="s">
+      <c r="B662" s="2" t="s">
         <v>918</v>
       </c>
       <c r="C662" t="s">
@@ -32000,7 +31995,7 @@
       <c r="A663" t="s">
         <v>612</v>
       </c>
-      <c r="B663" t="s">
+      <c r="B663" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C663" t="s">
@@ -32029,7 +32024,7 @@
       <c r="A664" t="s">
         <v>613</v>
       </c>
-      <c r="B664" t="s">
+      <c r="B664" s="2" t="s">
         <v>915</v>
       </c>
       <c r="D664" t="s">
@@ -32055,7 +32050,7 @@
       <c r="A665" t="s">
         <v>614</v>
       </c>
-      <c r="B665">
+      <c r="B665" s="2">
         <v>2015</v>
       </c>
       <c r="C665" t="s">
@@ -32084,7 +32079,7 @@
       <c r="A666" t="s">
         <v>589</v>
       </c>
-      <c r="B666" t="s">
+      <c r="B666" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C666" t="s">
@@ -32113,7 +32108,7 @@
       <c r="A667" t="s">
         <v>615</v>
       </c>
-      <c r="B667" t="s">
+      <c r="B667" s="2" t="s">
         <v>920</v>
       </c>
       <c r="D667" t="s">
@@ -32139,7 +32134,7 @@
       <c r="A668" t="s">
         <v>616</v>
       </c>
-      <c r="B668" t="s">
+      <c r="B668" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C668" t="s">
@@ -32168,7 +32163,7 @@
       <c r="A669" t="s">
         <v>617</v>
       </c>
-      <c r="B669" t="s">
+      <c r="B669" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C669" t="s">
@@ -32197,7 +32192,7 @@
       <c r="A670" t="s">
         <v>618</v>
       </c>
-      <c r="B670" t="s">
+      <c r="B670" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C670" t="s">
@@ -32226,7 +32221,7 @@
       <c r="A671" t="s">
         <v>619</v>
       </c>
-      <c r="B671" t="s">
+      <c r="B671" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C671" t="s">
@@ -32255,7 +32250,7 @@
       <c r="A672" t="s">
         <v>620</v>
       </c>
-      <c r="B672">
+      <c r="B672" s="2">
         <v>2015</v>
       </c>
       <c r="C672" t="s">
@@ -32284,7 +32279,7 @@
       <c r="A673" t="s">
         <v>621</v>
       </c>
-      <c r="B673" t="s">
+      <c r="B673" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C673" t="s">
@@ -32313,7 +32308,7 @@
       <c r="A674" t="s">
         <v>409</v>
       </c>
-      <c r="B674" t="s">
+      <c r="B674" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C674" t="s">
@@ -32342,7 +32337,7 @@
       <c r="A675" t="s">
         <v>622</v>
       </c>
-      <c r="B675" t="s">
+      <c r="B675" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C675" t="s">
@@ -32371,7 +32366,7 @@
       <c r="A676" t="s">
         <v>623</v>
       </c>
-      <c r="B676" t="s">
+      <c r="B676" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C676" t="s">
@@ -32400,7 +32395,7 @@
       <c r="A677" t="s">
         <v>624</v>
       </c>
-      <c r="B677" t="s">
+      <c r="B677" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C677" t="s">
@@ -32429,7 +32424,7 @@
       <c r="A678" t="s">
         <v>625</v>
       </c>
-      <c r="B678">
+      <c r="B678" s="2">
         <v>2015</v>
       </c>
       <c r="C678" t="s">
@@ -32458,7 +32453,7 @@
       <c r="A679" t="s">
         <v>626</v>
       </c>
-      <c r="B679">
+      <c r="B679" s="2">
         <v>2015</v>
       </c>
       <c r="C679" t="s">
@@ -32487,7 +32482,7 @@
       <c r="A680" t="s">
         <v>627</v>
       </c>
-      <c r="B680" t="s">
+      <c r="B680" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C680" t="s">
@@ -32516,7 +32511,7 @@
       <c r="A681" t="s">
         <v>628</v>
       </c>
-      <c r="B681">
+      <c r="B681" s="2">
         <v>2015</v>
       </c>
       <c r="C681" t="s">
@@ -32545,7 +32540,7 @@
       <c r="A682" t="s">
         <v>629</v>
       </c>
-      <c r="B682">
+      <c r="B682" s="2">
         <v>2015</v>
       </c>
       <c r="C682" t="s">
@@ -32574,7 +32569,7 @@
       <c r="A683" t="s">
         <v>630</v>
       </c>
-      <c r="B683" t="s">
+      <c r="B683" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C683" t="s">
@@ -32603,7 +32598,7 @@
       <c r="A684" t="s">
         <v>631</v>
       </c>
-      <c r="B684">
+      <c r="B684" s="2">
         <v>2015</v>
       </c>
       <c r="C684" t="s">
@@ -32632,7 +32627,7 @@
       <c r="A685" t="s">
         <v>632</v>
       </c>
-      <c r="B685">
+      <c r="B685" s="2">
         <v>2015</v>
       </c>
       <c r="C685" t="s">
@@ -32661,7 +32656,7 @@
       <c r="A686" t="s">
         <v>521</v>
       </c>
-      <c r="B686">
+      <c r="B686" s="2">
         <v>2015</v>
       </c>
       <c r="C686" t="s">
@@ -32690,7 +32685,7 @@
       <c r="A687" t="s">
         <v>633</v>
       </c>
-      <c r="B687" t="s">
+      <c r="B687" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C687" t="s">
@@ -32719,7 +32714,7 @@
       <c r="A688" t="s">
         <v>634</v>
       </c>
-      <c r="B688">
+      <c r="B688" s="2">
         <v>2015</v>
       </c>
       <c r="C688" t="s">
@@ -32748,7 +32743,7 @@
       <c r="A689" t="s">
         <v>232</v>
       </c>
-      <c r="B689" t="s">
+      <c r="B689" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C689" t="s">
@@ -32777,7 +32772,7 @@
       <c r="A690" t="s">
         <v>635</v>
       </c>
-      <c r="B690" t="s">
+      <c r="B690" s="2" t="s">
         <v>930</v>
       </c>
       <c r="C690" t="s">
@@ -32806,7 +32801,7 @@
       <c r="A691" t="s">
         <v>636</v>
       </c>
-      <c r="B691">
+      <c r="B691" s="2">
         <v>2015</v>
       </c>
       <c r="C691" t="s">
@@ -32835,7 +32830,7 @@
       <c r="A692" t="s">
         <v>487</v>
       </c>
-      <c r="B692" t="s">
+      <c r="B692" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C692" t="s">
@@ -32864,7 +32859,7 @@
       <c r="A693" t="s">
         <v>397</v>
       </c>
-      <c r="B693">
+      <c r="B693" s="2">
         <v>2015</v>
       </c>
       <c r="D693" t="s">
@@ -32890,7 +32885,7 @@
       <c r="A694" t="s">
         <v>589</v>
       </c>
-      <c r="B694" t="s">
+      <c r="B694" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C694" t="s">
@@ -32919,7 +32914,7 @@
       <c r="A695" t="s">
         <v>177</v>
       </c>
-      <c r="B695" t="s">
+      <c r="B695" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C695" t="s">
@@ -32948,7 +32943,7 @@
       <c r="A696" t="s">
         <v>276</v>
       </c>
-      <c r="B696" t="s">
+      <c r="B696" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C696" t="s">
@@ -32977,7 +32972,7 @@
       <c r="A697" t="s">
         <v>637</v>
       </c>
-      <c r="B697">
+      <c r="B697" s="2">
         <v>2015</v>
       </c>
       <c r="C697" t="s">
@@ -33006,7 +33001,7 @@
       <c r="A698" t="s">
         <v>638</v>
       </c>
-      <c r="B698" t="s">
+      <c r="B698" s="2" t="s">
         <v>921</v>
       </c>
       <c r="D698" t="s">
@@ -33032,7 +33027,7 @@
       <c r="A699" t="s">
         <v>639</v>
       </c>
-      <c r="B699" t="s">
+      <c r="B699" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C699" t="s">
@@ -33061,7 +33056,7 @@
       <c r="A700" t="s">
         <v>640</v>
       </c>
-      <c r="B700" t="s">
+      <c r="B700" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C700" t="s">
@@ -33090,7 +33085,7 @@
       <c r="A701" t="s">
         <v>641</v>
       </c>
-      <c r="B701" t="s">
+      <c r="B701" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C701" t="s">
@@ -33119,7 +33114,7 @@
       <c r="A702" t="s">
         <v>612</v>
       </c>
-      <c r="B702" t="s">
+      <c r="B702" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C702" t="s">
@@ -33148,7 +33143,7 @@
       <c r="A703" t="s">
         <v>642</v>
       </c>
-      <c r="B703">
+      <c r="B703" s="2">
         <v>2015</v>
       </c>
       <c r="C703" t="s">
@@ -33177,7 +33172,7 @@
       <c r="A704" t="s">
         <v>643</v>
       </c>
-      <c r="B704" t="s">
+      <c r="B704" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C704" t="s">
@@ -33206,7 +33201,7 @@
       <c r="A705" t="s">
         <v>644</v>
       </c>
-      <c r="B705" t="s">
+      <c r="B705" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C705" t="s">
@@ -33235,7 +33230,7 @@
       <c r="A706" t="s">
         <v>531</v>
       </c>
-      <c r="B706" t="s">
+      <c r="B706" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C706" t="s">
@@ -33264,7 +33259,7 @@
       <c r="A707" t="s">
         <v>645</v>
       </c>
-      <c r="B707" t="s">
+      <c r="B707" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C707" t="s">
@@ -33293,7 +33288,7 @@
       <c r="A708" t="s">
         <v>646</v>
       </c>
-      <c r="B708" t="s">
+      <c r="B708" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C708" t="s">
@@ -33322,7 +33317,7 @@
       <c r="A709" t="s">
         <v>26</v>
       </c>
-      <c r="B709" t="s">
+      <c r="B709" s="2" t="s">
         <v>920</v>
       </c>
       <c r="D709" t="s">
@@ -33348,7 +33343,7 @@
       <c r="A710" t="s">
         <v>647</v>
       </c>
-      <c r="B710">
+      <c r="B710" s="2">
         <v>2015</v>
       </c>
       <c r="C710" t="s">
@@ -33377,7 +33372,7 @@
       <c r="A711" t="s">
         <v>127</v>
       </c>
-      <c r="B711" t="s">
+      <c r="B711" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C711" t="s">
@@ -33406,7 +33401,7 @@
       <c r="A712" t="s">
         <v>648</v>
       </c>
-      <c r="B712" t="s">
+      <c r="B712" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C712" t="s">
@@ -33435,7 +33430,7 @@
       <c r="A713" t="s">
         <v>649</v>
       </c>
-      <c r="B713" t="s">
+      <c r="B713" s="2" t="s">
         <v>915</v>
       </c>
       <c r="D713" t="s">
@@ -33461,7 +33456,7 @@
       <c r="A714" t="s">
         <v>650</v>
       </c>
-      <c r="B714">
+      <c r="B714" s="2">
         <v>2015</v>
       </c>
       <c r="D714" t="s">
@@ -33487,7 +33482,7 @@
       <c r="A715" t="s">
         <v>651</v>
       </c>
-      <c r="B715">
+      <c r="B715" s="2">
         <v>2015</v>
       </c>
       <c r="D715" t="s">
@@ -33513,7 +33508,7 @@
       <c r="A716" t="s">
         <v>652</v>
       </c>
-      <c r="B716">
+      <c r="B716" s="2">
         <v>2015</v>
       </c>
       <c r="C716" t="s">
@@ -33542,7 +33537,7 @@
       <c r="A717" t="s">
         <v>653</v>
       </c>
-      <c r="B717" t="s">
+      <c r="B717" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C717" t="s">
@@ -33571,7 +33566,7 @@
       <c r="A718" t="s">
         <v>654</v>
       </c>
-      <c r="B718" t="s">
+      <c r="B718" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C718" t="s">
@@ -33600,7 +33595,7 @@
       <c r="A719" t="s">
         <v>655</v>
       </c>
-      <c r="B719" t="s">
+      <c r="B719" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C719" t="s">
@@ -33629,7 +33624,7 @@
       <c r="A720" t="s">
         <v>656</v>
       </c>
-      <c r="B720">
+      <c r="B720" s="2">
         <v>2015</v>
       </c>
       <c r="C720" t="s">
@@ -33658,7 +33653,7 @@
       <c r="A721" t="s">
         <v>657</v>
       </c>
-      <c r="B721">
+      <c r="B721" s="2">
         <v>2015</v>
       </c>
       <c r="C721" t="s">
@@ -33687,7 +33682,7 @@
       <c r="A722" t="s">
         <v>658</v>
       </c>
-      <c r="B722" t="s">
+      <c r="B722" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C722" t="s">
@@ -33716,7 +33711,7 @@
       <c r="A723" t="s">
         <v>659</v>
       </c>
-      <c r="B723" t="s">
+      <c r="B723" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C723" t="s">
@@ -33745,7 +33740,7 @@
       <c r="A724" t="s">
         <v>660</v>
       </c>
-      <c r="B724" t="s">
+      <c r="B724" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C724" t="s">
@@ -33774,7 +33769,7 @@
       <c r="A725" t="s">
         <v>661</v>
       </c>
-      <c r="B725" t="s">
+      <c r="B725" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C725" t="s">
@@ -33803,7 +33798,7 @@
       <c r="A726" t="s">
         <v>662</v>
       </c>
-      <c r="B726" t="s">
+      <c r="B726" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C726" t="s">
@@ -33832,7 +33827,7 @@
       <c r="A727" t="s">
         <v>663</v>
       </c>
-      <c r="B727" t="s">
+      <c r="B727" s="2" t="s">
         <v>927</v>
       </c>
       <c r="D727" t="s">
@@ -33858,7 +33853,7 @@
       <c r="A728" t="s">
         <v>664</v>
       </c>
-      <c r="B728" t="s">
+      <c r="B728" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C728" t="s">
@@ -33887,7 +33882,7 @@
       <c r="A729" t="s">
         <v>665</v>
       </c>
-      <c r="B729">
+      <c r="B729" s="2">
         <v>2015</v>
       </c>
       <c r="C729" t="s">
@@ -33916,7 +33911,7 @@
       <c r="A730" t="s">
         <v>666</v>
       </c>
-      <c r="B730">
+      <c r="B730" s="2">
         <v>2015</v>
       </c>
       <c r="C730" t="s">
@@ -33945,7 +33940,7 @@
       <c r="A731" t="s">
         <v>385</v>
       </c>
-      <c r="B731">
+      <c r="B731" s="2">
         <v>2015</v>
       </c>
       <c r="C731" t="s">
@@ -33974,7 +33969,7 @@
       <c r="A732" t="s">
         <v>667</v>
       </c>
-      <c r="B732">
+      <c r="B732" s="2">
         <v>2015</v>
       </c>
       <c r="C732" t="s">
@@ -34003,7 +33998,7 @@
       <c r="A733" t="s">
         <v>623</v>
       </c>
-      <c r="B733">
+      <c r="B733" s="2">
         <v>2015</v>
       </c>
       <c r="C733" t="s">
@@ -34032,7 +34027,7 @@
       <c r="A734" t="s">
         <v>668</v>
       </c>
-      <c r="B734" t="s">
+      <c r="B734" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C734" t="s">
@@ -34061,7 +34056,7 @@
       <c r="A735" t="s">
         <v>669</v>
       </c>
-      <c r="B735" t="s">
+      <c r="B735" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C735" t="s">
@@ -34090,7 +34085,7 @@
       <c r="A736" t="s">
         <v>670</v>
       </c>
-      <c r="B736" t="s">
+      <c r="B736" s="2" t="s">
         <v>919</v>
       </c>
       <c r="D736" t="s">
@@ -34116,7 +34111,7 @@
       <c r="A737" t="s">
         <v>314</v>
       </c>
-      <c r="B737" t="s">
+      <c r="B737" s="2" t="s">
         <v>918</v>
       </c>
       <c r="C737" t="s">
@@ -34145,7 +34140,7 @@
       <c r="A738" t="s">
         <v>671</v>
       </c>
-      <c r="B738" t="s">
+      <c r="B738" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C738" t="s">
@@ -34174,7 +34169,7 @@
       <c r="A739" t="s">
         <v>672</v>
       </c>
-      <c r="B739">
+      <c r="B739" s="2">
         <v>2015</v>
       </c>
       <c r="C739" t="s">
@@ -34203,7 +34198,7 @@
       <c r="A740" t="s">
         <v>673</v>
       </c>
-      <c r="B740" t="s">
+      <c r="B740" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C740" t="s">
@@ -34232,7 +34227,7 @@
       <c r="A741" t="s">
         <v>674</v>
       </c>
-      <c r="B741" t="s">
+      <c r="B741" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C741" t="s">
@@ -34261,7 +34256,7 @@
       <c r="A742" t="s">
         <v>456</v>
       </c>
-      <c r="B742">
+      <c r="B742" s="2">
         <v>2015</v>
       </c>
       <c r="D742" t="s">
@@ -34287,7 +34282,7 @@
       <c r="A743" t="s">
         <v>190</v>
       </c>
-      <c r="B743">
+      <c r="B743" s="2">
         <v>2015</v>
       </c>
       <c r="C743" t="s">
@@ -34316,7 +34311,7 @@
       <c r="A744" t="s">
         <v>675</v>
       </c>
-      <c r="B744">
+      <c r="B744" s="2">
         <v>2015</v>
       </c>
       <c r="C744" t="s">
@@ -34345,7 +34340,7 @@
       <c r="A745" t="s">
         <v>676</v>
       </c>
-      <c r="B745" t="s">
+      <c r="B745" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C745" t="s">
@@ -34374,7 +34369,7 @@
       <c r="A746" t="s">
         <v>129</v>
       </c>
-      <c r="B746" t="s">
+      <c r="B746" s="2" t="s">
         <v>915</v>
       </c>
       <c r="D746" t="s">
@@ -34400,7 +34395,7 @@
       <c r="A747" t="s">
         <v>677</v>
       </c>
-      <c r="B747" t="s">
+      <c r="B747" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C747" t="s">
@@ -34429,7 +34424,7 @@
       <c r="A748" t="s">
         <v>678</v>
       </c>
-      <c r="B748">
+      <c r="B748" s="2">
         <v>2015</v>
       </c>
       <c r="C748" t="s">
@@ -34458,7 +34453,7 @@
       <c r="A749" t="s">
         <v>679</v>
       </c>
-      <c r="B749" t="s">
+      <c r="B749" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C749" t="s">
@@ -34487,7 +34482,7 @@
       <c r="A750" t="s">
         <v>442</v>
       </c>
-      <c r="B750" t="s">
+      <c r="B750" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C750" t="s">
@@ -34516,7 +34511,7 @@
       <c r="A751" t="s">
         <v>680</v>
       </c>
-      <c r="B751" t="s">
+      <c r="B751" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C751" t="s">
@@ -34545,7 +34540,7 @@
       <c r="A752" t="s">
         <v>681</v>
       </c>
-      <c r="B752" t="s">
+      <c r="B752" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C752" t="s">
@@ -34574,7 +34569,7 @@
       <c r="A753" t="s">
         <v>682</v>
       </c>
-      <c r="B753" t="s">
+      <c r="B753" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C753" t="s">
@@ -34603,7 +34598,7 @@
       <c r="A754" t="s">
         <v>683</v>
       </c>
-      <c r="B754" t="s">
+      <c r="B754" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C754" t="s">
@@ -34632,7 +34627,7 @@
       <c r="A755" t="s">
         <v>530</v>
       </c>
-      <c r="B755">
+      <c r="B755" s="2">
         <v>2015</v>
       </c>
       <c r="C755" t="s">
@@ -34661,7 +34656,7 @@
       <c r="A756" t="s">
         <v>684</v>
       </c>
-      <c r="B756" t="s">
+      <c r="B756" s="2" t="s">
         <v>938</v>
       </c>
       <c r="D756" t="s">
@@ -34687,7 +34682,7 @@
       <c r="A757" t="s">
         <v>685</v>
       </c>
-      <c r="B757" t="s">
+      <c r="B757" s="2" t="s">
         <v>918</v>
       </c>
       <c r="C757" t="s">
@@ -34716,7 +34711,7 @@
       <c r="A758" t="s">
         <v>686</v>
       </c>
-      <c r="B758" t="s">
+      <c r="B758" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C758" t="s">
@@ -34745,7 +34740,7 @@
       <c r="A759" t="s">
         <v>687</v>
       </c>
-      <c r="B759" t="s">
+      <c r="B759" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C759" t="s">
@@ -34774,7 +34769,7 @@
       <c r="A760" t="s">
         <v>688</v>
       </c>
-      <c r="B760">
+      <c r="B760" s="2">
         <v>2015</v>
       </c>
       <c r="C760" t="s">
@@ -34803,7 +34798,7 @@
       <c r="A761" t="s">
         <v>689</v>
       </c>
-      <c r="B761" t="s">
+      <c r="B761" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C761" t="s">
@@ -34832,7 +34827,7 @@
       <c r="A762" t="s">
         <v>502</v>
       </c>
-      <c r="B762">
+      <c r="B762" s="2">
         <v>2015</v>
       </c>
       <c r="C762" t="s">
@@ -34861,7 +34856,7 @@
       <c r="A763" t="s">
         <v>690</v>
       </c>
-      <c r="B763">
+      <c r="B763" s="2">
         <v>2015</v>
       </c>
       <c r="C763" t="s">
@@ -34890,7 +34885,7 @@
       <c r="A764" t="s">
         <v>691</v>
       </c>
-      <c r="B764" t="s">
+      <c r="B764" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C764" t="s">
@@ -34919,7 +34914,7 @@
       <c r="A765" t="s">
         <v>692</v>
       </c>
-      <c r="B765" t="s">
+      <c r="B765" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C765" t="s">
@@ -34948,7 +34943,7 @@
       <c r="A766" t="s">
         <v>693</v>
       </c>
-      <c r="B766" t="s">
+      <c r="B766" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C766" t="s">
@@ -34977,7 +34972,7 @@
       <c r="A767" t="s">
         <v>663</v>
       </c>
-      <c r="B767">
+      <c r="B767" s="2">
         <v>2015</v>
       </c>
       <c r="D767" t="s">
@@ -35003,7 +34998,7 @@
       <c r="A768" t="s">
         <v>694</v>
       </c>
-      <c r="B768" t="s">
+      <c r="B768" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C768" t="s">
@@ -35032,7 +35027,7 @@
       <c r="A769" t="s">
         <v>695</v>
       </c>
-      <c r="B769" t="s">
+      <c r="B769" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C769" t="s">
@@ -35061,7 +35056,7 @@
       <c r="A770" t="s">
         <v>696</v>
       </c>
-      <c r="B770" t="s">
+      <c r="B770" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C770" t="s">
@@ -35090,7 +35085,7 @@
       <c r="A771" t="s">
         <v>697</v>
       </c>
-      <c r="B771">
+      <c r="B771" s="2">
         <v>2015</v>
       </c>
       <c r="C771" t="s">
@@ -35119,7 +35114,7 @@
       <c r="A772" t="s">
         <v>698</v>
       </c>
-      <c r="B772">
+      <c r="B772" s="2">
         <v>2015</v>
       </c>
       <c r="D772" t="s">
@@ -35145,7 +35140,7 @@
       <c r="A773" t="s">
         <v>699</v>
       </c>
-      <c r="B773" t="s">
+      <c r="B773" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C773" t="s">
@@ -35174,7 +35169,7 @@
       <c r="A774" t="s">
         <v>700</v>
       </c>
-      <c r="B774">
+      <c r="B774" s="2">
         <v>2015</v>
       </c>
       <c r="D774" t="s">
@@ -35200,7 +35195,7 @@
       <c r="A775" t="s">
         <v>701</v>
       </c>
-      <c r="B775" t="s">
+      <c r="B775" s="2" t="s">
         <v>915</v>
       </c>
       <c r="D775" t="s">
@@ -35226,7 +35221,7 @@
       <c r="A776" t="s">
         <v>702</v>
       </c>
-      <c r="B776">
+      <c r="B776" s="2">
         <v>2015</v>
       </c>
       <c r="C776" t="s">
@@ -35255,7 +35250,7 @@
       <c r="A777" t="s">
         <v>625</v>
       </c>
-      <c r="B777">
+      <c r="B777" s="2">
         <v>2015</v>
       </c>
       <c r="D777" t="s">
@@ -35281,7 +35276,7 @@
       <c r="A778" t="s">
         <v>703</v>
       </c>
-      <c r="B778">
+      <c r="B778" s="2">
         <v>2015</v>
       </c>
       <c r="C778" t="s">
@@ -35310,7 +35305,7 @@
       <c r="A779" t="s">
         <v>704</v>
       </c>
-      <c r="B779">
+      <c r="B779" s="2">
         <v>2015</v>
       </c>
       <c r="D779" t="s">
@@ -35336,7 +35331,7 @@
       <c r="A780" t="s">
         <v>705</v>
       </c>
-      <c r="B780">
+      <c r="B780" s="2">
         <v>2015</v>
       </c>
       <c r="C780" t="s">
@@ -35365,7 +35360,7 @@
       <c r="A781" t="s">
         <v>114</v>
       </c>
-      <c r="B781" t="s">
+      <c r="B781" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C781" t="s">
@@ -35394,7 +35389,7 @@
       <c r="A782" t="s">
         <v>706</v>
       </c>
-      <c r="B782" t="s">
+      <c r="B782" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C782" t="s">
@@ -35423,7 +35418,7 @@
       <c r="A783" t="s">
         <v>707</v>
       </c>
-      <c r="B783">
+      <c r="B783" s="2">
         <v>2015</v>
       </c>
       <c r="C783" t="s">
@@ -35452,7 +35447,7 @@
       <c r="A784" t="s">
         <v>333</v>
       </c>
-      <c r="B784">
+      <c r="B784" s="2">
         <v>2015</v>
       </c>
       <c r="D784" t="s">
@@ -35478,7 +35473,7 @@
       <c r="A785" t="s">
         <v>346</v>
       </c>
-      <c r="B785" t="s">
+      <c r="B785" s="2" t="s">
         <v>918</v>
       </c>
       <c r="C785" t="s">
@@ -35507,7 +35502,7 @@
       <c r="A786" t="s">
         <v>708</v>
       </c>
-      <c r="B786" t="s">
+      <c r="B786" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C786" t="s">
@@ -35536,7 +35531,7 @@
       <c r="A787" t="s">
         <v>709</v>
       </c>
-      <c r="B787">
+      <c r="B787" s="2">
         <v>2015</v>
       </c>
       <c r="C787" t="s">
@@ -35565,7 +35560,7 @@
       <c r="A788" t="s">
         <v>696</v>
       </c>
-      <c r="B788" t="s">
+      <c r="B788" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C788" t="s">
@@ -35594,7 +35589,7 @@
       <c r="A789" t="s">
         <v>710</v>
       </c>
-      <c r="B789">
+      <c r="B789" s="2">
         <v>2015</v>
       </c>
       <c r="C789" t="s">
@@ -35623,7 +35618,7 @@
       <c r="A790" t="s">
         <v>711</v>
       </c>
-      <c r="B790">
+      <c r="B790" s="2">
         <v>2015</v>
       </c>
       <c r="D790" t="s">
@@ -35649,7 +35644,7 @@
       <c r="A791" t="s">
         <v>530</v>
       </c>
-      <c r="B791">
+      <c r="B791" s="2">
         <v>2015</v>
       </c>
       <c r="C791" t="s">
@@ -35678,7 +35673,7 @@
       <c r="A792" t="s">
         <v>712</v>
       </c>
-      <c r="B792" t="s">
+      <c r="B792" s="2" t="s">
         <v>917</v>
       </c>
       <c r="D792" t="s">
@@ -35704,7 +35699,7 @@
       <c r="A793" t="s">
         <v>713</v>
       </c>
-      <c r="B793">
+      <c r="B793" s="2">
         <v>2015</v>
       </c>
       <c r="C793" t="s">
@@ -35733,7 +35728,7 @@
       <c r="A794" t="s">
         <v>714</v>
       </c>
-      <c r="B794" t="s">
+      <c r="B794" s="2" t="s">
         <v>915</v>
       </c>
       <c r="D794" t="s">
@@ -35759,7 +35754,7 @@
       <c r="A795" t="s">
         <v>715</v>
       </c>
-      <c r="B795" t="s">
+      <c r="B795" s="2" t="s">
         <v>928</v>
       </c>
       <c r="D795" t="s">
@@ -35785,7 +35780,7 @@
       <c r="A796" t="s">
         <v>406</v>
       </c>
-      <c r="B796">
+      <c r="B796" s="2">
         <v>2015</v>
       </c>
       <c r="C796" t="s">
@@ -35814,7 +35809,7 @@
       <c r="A797" t="s">
         <v>555</v>
       </c>
-      <c r="B797" t="s">
+      <c r="B797" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C797" t="s">
@@ -35843,7 +35838,7 @@
       <c r="A798" t="s">
         <v>716</v>
       </c>
-      <c r="B798" t="s">
+      <c r="B798" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C798" t="s">
@@ -35872,7 +35867,7 @@
       <c r="A799" t="s">
         <v>717</v>
       </c>
-      <c r="B799" t="s">
+      <c r="B799" s="2" t="s">
         <v>915</v>
       </c>
       <c r="D799" t="s">
@@ -35898,7 +35893,7 @@
       <c r="A800" t="s">
         <v>24</v>
       </c>
-      <c r="B800">
+      <c r="B800" s="2">
         <v>2015</v>
       </c>
       <c r="C800" t="s">
@@ -35927,7 +35922,7 @@
       <c r="A801" t="s">
         <v>718</v>
       </c>
-      <c r="B801">
+      <c r="B801" s="2">
         <v>2015</v>
       </c>
       <c r="D801" t="s">
@@ -35953,7 +35948,7 @@
       <c r="A802" t="s">
         <v>719</v>
       </c>
-      <c r="B802">
+      <c r="B802" s="2">
         <v>2015</v>
       </c>
       <c r="C802" t="s">
@@ -35982,7 +35977,7 @@
       <c r="A803" t="s">
         <v>720</v>
       </c>
-      <c r="B803" t="s">
+      <c r="B803" s="2" t="s">
         <v>915</v>
       </c>
       <c r="D803" t="s">
@@ -36008,7 +36003,7 @@
       <c r="A804" t="s">
         <v>721</v>
       </c>
-      <c r="B804" t="s">
+      <c r="B804" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C804" t="s">
@@ -36037,7 +36032,7 @@
       <c r="A805" t="s">
         <v>722</v>
       </c>
-      <c r="B805" t="s">
+      <c r="B805" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C805" t="s">
@@ -36066,7 +36061,7 @@
       <c r="A806" t="s">
         <v>723</v>
       </c>
-      <c r="B806" t="s">
+      <c r="B806" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C806" t="s">
@@ -36095,7 +36090,7 @@
       <c r="A807" t="s">
         <v>724</v>
       </c>
-      <c r="B807" t="s">
+      <c r="B807" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C807" t="s">
@@ -36124,7 +36119,7 @@
       <c r="A808" t="s">
         <v>144</v>
       </c>
-      <c r="B808" t="s">
+      <c r="B808" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C808" t="s">
@@ -36153,7 +36148,7 @@
       <c r="A809" t="s">
         <v>725</v>
       </c>
-      <c r="B809">
+      <c r="B809" s="2">
         <v>2015</v>
       </c>
       <c r="C809" t="s">
@@ -36182,7 +36177,7 @@
       <c r="A810" t="s">
         <v>726</v>
       </c>
-      <c r="B810" t="s">
+      <c r="B810" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C810" t="s">
@@ -36211,7 +36206,7 @@
       <c r="A811" t="s">
         <v>279</v>
       </c>
-      <c r="B811">
+      <c r="B811" s="2">
         <v>2015</v>
       </c>
       <c r="C811" t="s">
@@ -36240,7 +36235,7 @@
       <c r="A812" t="s">
         <v>127</v>
       </c>
-      <c r="B812" t="s">
+      <c r="B812" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C812" t="s">
@@ -36269,7 +36264,7 @@
       <c r="A813" t="s">
         <v>727</v>
       </c>
-      <c r="B813" t="s">
+      <c r="B813" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C813" t="s">
@@ -36298,7 +36293,7 @@
       <c r="A814" t="s">
         <v>728</v>
       </c>
-      <c r="B814">
+      <c r="B814" s="2">
         <v>2015</v>
       </c>
       <c r="C814" t="s">
@@ -36327,7 +36322,7 @@
       <c r="A815" t="s">
         <v>406</v>
       </c>
-      <c r="B815">
+      <c r="B815" s="2">
         <v>2015</v>
       </c>
       <c r="C815" t="s">
@@ -36356,7 +36351,7 @@
       <c r="A816" t="s">
         <v>729</v>
       </c>
-      <c r="B816" t="s">
+      <c r="B816" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C816" t="s">
@@ -36385,7 +36380,7 @@
       <c r="A817" t="s">
         <v>730</v>
       </c>
-      <c r="B817" t="s">
+      <c r="B817" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C817" t="s">
@@ -36414,7 +36409,7 @@
       <c r="A818" t="s">
         <v>731</v>
       </c>
-      <c r="B818">
+      <c r="B818" s="2">
         <v>2015</v>
       </c>
       <c r="C818" t="s">
@@ -36443,7 +36438,7 @@
       <c r="A819" t="s">
         <v>732</v>
       </c>
-      <c r="B819">
+      <c r="B819" s="2">
         <v>2015</v>
       </c>
       <c r="C819" t="s">
@@ -36472,7 +36467,7 @@
       <c r="A820" t="s">
         <v>733</v>
       </c>
-      <c r="B820" t="s">
+      <c r="B820" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C820" t="s">
@@ -36501,7 +36496,7 @@
       <c r="A821" t="s">
         <v>444</v>
       </c>
-      <c r="B821">
+      <c r="B821" s="2">
         <v>2015</v>
       </c>
       <c r="C821" t="s">
@@ -36530,7 +36525,7 @@
       <c r="A822" t="s">
         <v>734</v>
       </c>
-      <c r="B822" t="s">
+      <c r="B822" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C822" t="s">
@@ -36559,7 +36554,7 @@
       <c r="A823" t="s">
         <v>735</v>
       </c>
-      <c r="B823">
+      <c r="B823" s="2">
         <v>2015</v>
       </c>
       <c r="C823" t="s">
@@ -36588,7 +36583,7 @@
       <c r="A824" t="s">
         <v>736</v>
       </c>
-      <c r="B824" t="s">
+      <c r="B824" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C824" t="s">
@@ -36617,7 +36612,7 @@
       <c r="A825" t="s">
         <v>34</v>
       </c>
-      <c r="B825">
+      <c r="B825" s="2">
         <v>2015</v>
       </c>
       <c r="D825" t="s">
@@ -36643,7 +36638,7 @@
       <c r="A826" t="s">
         <v>737</v>
       </c>
-      <c r="B826">
+      <c r="B826" s="2">
         <v>2015</v>
       </c>
       <c r="D826" t="s">
@@ -36669,7 +36664,7 @@
       <c r="A827" t="s">
         <v>738</v>
       </c>
-      <c r="B827">
+      <c r="B827" s="2">
         <v>2015</v>
       </c>
       <c r="C827" t="s">
@@ -36698,7 +36693,7 @@
       <c r="A828" t="s">
         <v>739</v>
       </c>
-      <c r="B828" t="s">
+      <c r="B828" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C828" t="s">
@@ -36727,7 +36722,7 @@
       <c r="A829" t="s">
         <v>740</v>
       </c>
-      <c r="B829">
+      <c r="B829" s="2">
         <v>2015</v>
       </c>
       <c r="C829" t="s">
@@ -36756,7 +36751,7 @@
       <c r="A830" t="s">
         <v>741</v>
       </c>
-      <c r="B830" t="s">
+      <c r="B830" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C830" t="s">
@@ -36785,7 +36780,7 @@
       <c r="A831" t="s">
         <v>354</v>
       </c>
-      <c r="B831">
+      <c r="B831" s="2">
         <v>2015</v>
       </c>
       <c r="C831" t="s">
@@ -36814,7 +36809,7 @@
       <c r="A832" t="s">
         <v>742</v>
       </c>
-      <c r="B832" t="s">
+      <c r="B832" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C832" t="s">
@@ -36843,7 +36838,7 @@
       <c r="A833" t="s">
         <v>743</v>
       </c>
-      <c r="B833" t="s">
+      <c r="B833" s="2" t="s">
         <v>930</v>
       </c>
       <c r="C833" t="s">
@@ -36872,7 +36867,7 @@
       <c r="A834" t="s">
         <v>744</v>
       </c>
-      <c r="B834" t="s">
+      <c r="B834" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C834" t="s">
@@ -36901,7 +36896,7 @@
       <c r="A835" t="s">
         <v>318</v>
       </c>
-      <c r="B835" t="s">
+      <c r="B835" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C835" t="s">
@@ -36930,7 +36925,7 @@
       <c r="A836" t="s">
         <v>745</v>
       </c>
-      <c r="B836">
+      <c r="B836" s="2">
         <v>2015</v>
       </c>
       <c r="C836" t="s">
@@ -36959,7 +36954,7 @@
       <c r="A837" t="s">
         <v>746</v>
       </c>
-      <c r="B837" t="s">
+      <c r="B837" s="2" t="s">
         <v>916</v>
       </c>
       <c r="D837" t="s">
@@ -36985,7 +36980,7 @@
       <c r="A838" t="s">
         <v>636</v>
       </c>
-      <c r="B838">
+      <c r="B838" s="2">
         <v>2015</v>
       </c>
       <c r="C838" t="s">
@@ -37014,7 +37009,7 @@
       <c r="A839" t="s">
         <v>747</v>
       </c>
-      <c r="B839" t="s">
+      <c r="B839" s="2" t="s">
         <v>919</v>
       </c>
       <c r="D839" t="s">
@@ -37040,7 +37035,7 @@
       <c r="A840" t="s">
         <v>748</v>
       </c>
-      <c r="B840" t="s">
+      <c r="B840" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C840" t="s">
@@ -37069,7 +37064,7 @@
       <c r="A841" t="s">
         <v>749</v>
       </c>
-      <c r="B841" t="s">
+      <c r="B841" s="2" t="s">
         <v>919</v>
       </c>
       <c r="D841" t="s">
@@ -37095,7 +37090,7 @@
       <c r="A842" t="s">
         <v>750</v>
       </c>
-      <c r="B842">
+      <c r="B842" s="2">
         <v>2015</v>
       </c>
       <c r="C842" t="s">
@@ -37124,7 +37119,7 @@
       <c r="A843" t="s">
         <v>751</v>
       </c>
-      <c r="B843" t="s">
+      <c r="B843" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C843" t="s">
@@ -37153,7 +37148,7 @@
       <c r="A844" t="s">
         <v>752</v>
       </c>
-      <c r="B844" t="s">
+      <c r="B844" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C844" t="s">
@@ -37182,7 +37177,7 @@
       <c r="A845" t="s">
         <v>753</v>
       </c>
-      <c r="B845" t="s">
+      <c r="B845" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C845" t="s">
@@ -37211,7 +37206,7 @@
       <c r="A846" t="s">
         <v>754</v>
       </c>
-      <c r="B846">
+      <c r="B846" s="2">
         <v>2015</v>
       </c>
       <c r="C846" t="s">
@@ -37240,7 +37235,7 @@
       <c r="A847" t="s">
         <v>755</v>
       </c>
-      <c r="B847">
+      <c r="B847" s="2">
         <v>2015</v>
       </c>
       <c r="C847" t="s">
@@ -37269,7 +37264,7 @@
       <c r="A848" t="s">
         <v>756</v>
       </c>
-      <c r="B848">
+      <c r="B848" s="2">
         <v>2015</v>
       </c>
       <c r="C848" t="s">
@@ -37298,7 +37293,7 @@
       <c r="A849" t="s">
         <v>757</v>
       </c>
-      <c r="B849">
+      <c r="B849" s="2">
         <v>2015</v>
       </c>
       <c r="C849" t="s">
@@ -37327,7 +37322,7 @@
       <c r="A850" t="s">
         <v>758</v>
       </c>
-      <c r="B850">
+      <c r="B850" s="2">
         <v>2015</v>
       </c>
       <c r="C850" t="s">
@@ -37356,7 +37351,7 @@
       <c r="A851" t="s">
         <v>400</v>
       </c>
-      <c r="B851">
+      <c r="B851" s="2">
         <v>2015</v>
       </c>
       <c r="C851" t="s">
@@ -37385,7 +37380,7 @@
       <c r="A852" t="s">
         <v>759</v>
       </c>
-      <c r="B852">
+      <c r="B852" s="2">
         <v>2015</v>
       </c>
       <c r="C852" t="s">
@@ -37414,7 +37409,7 @@
       <c r="A853" t="s">
         <v>760</v>
       </c>
-      <c r="B853" t="s">
+      <c r="B853" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C853" t="s">
@@ -37443,7 +37438,7 @@
       <c r="A854" t="s">
         <v>761</v>
       </c>
-      <c r="B854">
+      <c r="B854" s="2">
         <v>2015</v>
       </c>
       <c r="C854" t="s">
@@ -37472,7 +37467,7 @@
       <c r="A855" t="s">
         <v>762</v>
       </c>
-      <c r="B855">
+      <c r="B855" s="2">
         <v>2015</v>
       </c>
       <c r="C855" t="s">
@@ -37501,7 +37496,7 @@
       <c r="A856" t="s">
         <v>763</v>
       </c>
-      <c r="B856">
+      <c r="B856" s="2">
         <v>2015</v>
       </c>
       <c r="C856" t="s">
@@ -37530,7 +37525,7 @@
       <c r="A857" t="s">
         <v>598</v>
       </c>
-      <c r="B857" t="s">
+      <c r="B857" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C857" t="s">
@@ -37559,7 +37554,7 @@
       <c r="A858" t="s">
         <v>556</v>
       </c>
-      <c r="B858" t="s">
+      <c r="B858" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C858" t="s">
@@ -37588,7 +37583,7 @@
       <c r="A859" t="s">
         <v>337</v>
       </c>
-      <c r="B859" t="s">
+      <c r="B859" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C859" t="s">
@@ -37617,7 +37612,7 @@
       <c r="A860" t="s">
         <v>764</v>
       </c>
-      <c r="B860">
+      <c r="B860" s="2">
         <v>2015</v>
       </c>
       <c r="C860" t="s">
@@ -37646,7 +37641,7 @@
       <c r="A861" t="s">
         <v>39</v>
       </c>
-      <c r="B861">
+      <c r="B861" s="2">
         <v>2015</v>
       </c>
       <c r="C861" t="s">
@@ -37675,7 +37670,7 @@
       <c r="A862" t="s">
         <v>765</v>
       </c>
-      <c r="B862">
+      <c r="B862" s="2">
         <v>2015</v>
       </c>
       <c r="C862" t="s">
@@ -37704,7 +37699,7 @@
       <c r="A863" t="s">
         <v>766</v>
       </c>
-      <c r="B863" t="s">
+      <c r="B863" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C863" t="s">
@@ -37733,7 +37728,7 @@
       <c r="A864" t="s">
         <v>767</v>
       </c>
-      <c r="B864" t="s">
+      <c r="B864" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C864" t="s">
@@ -37762,7 +37757,7 @@
       <c r="A865" t="s">
         <v>768</v>
       </c>
-      <c r="B865">
+      <c r="B865" s="2">
         <v>2015</v>
       </c>
       <c r="C865" t="s">
@@ -37791,7 +37786,7 @@
       <c r="A866" t="s">
         <v>475</v>
       </c>
-      <c r="B866" t="s">
+      <c r="B866" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C866" t="s">
@@ -37820,7 +37815,7 @@
       <c r="A867" t="s">
         <v>769</v>
       </c>
-      <c r="B867">
+      <c r="B867" s="2">
         <v>2015</v>
       </c>
       <c r="C867" t="s">
@@ -37849,7 +37844,7 @@
       <c r="A868" t="s">
         <v>770</v>
       </c>
-      <c r="B868" t="s">
+      <c r="B868" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C868" t="s">
@@ -37878,7 +37873,7 @@
       <c r="A869" t="s">
         <v>771</v>
       </c>
-      <c r="B869" t="s">
+      <c r="B869" s="2" t="s">
         <v>920</v>
       </c>
       <c r="D869" t="s">
@@ -37904,7 +37899,7 @@
       <c r="A870" t="s">
         <v>772</v>
       </c>
-      <c r="B870" t="s">
+      <c r="B870" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C870" t="s">
@@ -37933,7 +37928,7 @@
       <c r="A871" t="s">
         <v>773</v>
       </c>
-      <c r="B871" t="s">
+      <c r="B871" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C871" t="s">
@@ -37962,7 +37957,7 @@
       <c r="A872" t="s">
         <v>774</v>
       </c>
-      <c r="B872">
+      <c r="B872" s="2">
         <v>2015</v>
       </c>
       <c r="C872" t="s">
@@ -37991,7 +37986,7 @@
       <c r="A873" t="s">
         <v>775</v>
       </c>
-      <c r="B873" t="s">
+      <c r="B873" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C873" t="s">
@@ -38020,7 +38015,7 @@
       <c r="A874" t="s">
         <v>776</v>
       </c>
-      <c r="B874" t="s">
+      <c r="B874" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C874" t="s">
@@ -38049,7 +38044,7 @@
       <c r="A875" t="s">
         <v>777</v>
       </c>
-      <c r="B875">
+      <c r="B875" s="2">
         <v>2015</v>
       </c>
       <c r="C875" t="s">
@@ -38078,7 +38073,7 @@
       <c r="A876" t="s">
         <v>778</v>
       </c>
-      <c r="B876" t="s">
+      <c r="B876" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C876" t="s">
@@ -38107,7 +38102,7 @@
       <c r="A877" t="s">
         <v>779</v>
       </c>
-      <c r="B877">
+      <c r="B877" s="2">
         <v>2015</v>
       </c>
       <c r="C877" t="s">
@@ -38136,7 +38131,7 @@
       <c r="A878" t="s">
         <v>780</v>
       </c>
-      <c r="B878" t="s">
+      <c r="B878" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C878" t="s">
@@ -38165,7 +38160,7 @@
       <c r="A879" t="s">
         <v>781</v>
       </c>
-      <c r="B879">
+      <c r="B879" s="2">
         <v>2015</v>
       </c>
       <c r="C879" t="s">
@@ -38194,7 +38189,7 @@
       <c r="A880" t="s">
         <v>782</v>
       </c>
-      <c r="B880" t="s">
+      <c r="B880" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C880" t="s">
@@ -38223,7 +38218,7 @@
       <c r="A881" t="s">
         <v>783</v>
       </c>
-      <c r="B881" t="s">
+      <c r="B881" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C881" t="s">
@@ -38252,7 +38247,7 @@
       <c r="A882" t="s">
         <v>784</v>
       </c>
-      <c r="B882" t="s">
+      <c r="B882" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C882" t="s">
@@ -38281,7 +38276,7 @@
       <c r="A883" t="s">
         <v>182</v>
       </c>
-      <c r="B883" t="s">
+      <c r="B883" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C883" t="s">
@@ -38310,7 +38305,7 @@
       <c r="A884" t="s">
         <v>785</v>
       </c>
-      <c r="B884" t="s">
+      <c r="B884" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C884" t="s">
@@ -38339,7 +38334,7 @@
       <c r="A885" t="s">
         <v>17</v>
       </c>
-      <c r="B885" t="s">
+      <c r="B885" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C885" t="s">
@@ -38368,7 +38363,7 @@
       <c r="A886" t="s">
         <v>786</v>
       </c>
-      <c r="B886" t="s">
+      <c r="B886" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C886" t="s">
@@ -38397,7 +38392,7 @@
       <c r="A887" t="s">
         <v>787</v>
       </c>
-      <c r="B887" t="s">
+      <c r="B887" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C887" t="s">
@@ -38426,7 +38421,7 @@
       <c r="A888" t="s">
         <v>788</v>
       </c>
-      <c r="B888">
+      <c r="B888" s="2">
         <v>2015</v>
       </c>
       <c r="D888" t="s">
@@ -38452,7 +38447,7 @@
       <c r="A889" t="s">
         <v>789</v>
       </c>
-      <c r="B889" t="s">
+      <c r="B889" s="2" t="s">
         <v>920</v>
       </c>
       <c r="D889" t="s">
@@ -38478,7 +38473,7 @@
       <c r="A890" t="s">
         <v>790</v>
       </c>
-      <c r="B890">
+      <c r="B890" s="2">
         <v>2015</v>
       </c>
       <c r="C890" t="s">
@@ -38507,7 +38502,7 @@
       <c r="A891" t="s">
         <v>791</v>
       </c>
-      <c r="B891">
+      <c r="B891" s="2">
         <v>2015</v>
       </c>
       <c r="C891" t="s">
@@ -38536,7 +38531,7 @@
       <c r="A892" t="s">
         <v>792</v>
       </c>
-      <c r="B892">
+      <c r="B892" s="2">
         <v>2015</v>
       </c>
       <c r="C892" t="s">
@@ -38565,7 +38560,7 @@
       <c r="A893" t="s">
         <v>793</v>
       </c>
-      <c r="B893">
+      <c r="B893" s="2">
         <v>2015</v>
       </c>
       <c r="C893" t="s">
@@ -38594,7 +38589,7 @@
       <c r="A894" t="s">
         <v>794</v>
       </c>
-      <c r="B894" t="s">
+      <c r="B894" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C894" t="s">
@@ -38623,7 +38618,7 @@
       <c r="A895" t="s">
         <v>716</v>
       </c>
-      <c r="B895" t="s">
+      <c r="B895" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C895" t="s">
@@ -38652,7 +38647,7 @@
       <c r="A896" t="s">
         <v>795</v>
       </c>
-      <c r="B896" t="s">
+      <c r="B896" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C896" t="s">
@@ -38681,7 +38676,7 @@
       <c r="A897" t="s">
         <v>123</v>
       </c>
-      <c r="B897" t="s">
+      <c r="B897" s="2" t="s">
         <v>930</v>
       </c>
       <c r="C897" t="s">
@@ -38710,7 +38705,7 @@
       <c r="A898" t="s">
         <v>796</v>
       </c>
-      <c r="B898" t="s">
+      <c r="B898" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C898" t="s">
@@ -38739,7 +38734,7 @@
       <c r="A899" t="s">
         <v>409</v>
       </c>
-      <c r="B899" t="s">
+      <c r="B899" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C899" t="s">
@@ -38768,7 +38763,7 @@
       <c r="A900" t="s">
         <v>797</v>
       </c>
-      <c r="B900">
+      <c r="B900" s="2">
         <v>2015</v>
       </c>
       <c r="C900" t="s">
@@ -38797,7 +38792,7 @@
       <c r="A901" t="s">
         <v>798</v>
       </c>
-      <c r="B901" t="s">
+      <c r="B901" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C901" t="s">
@@ -38826,7 +38821,7 @@
       <c r="A902" t="s">
         <v>799</v>
       </c>
-      <c r="B902" t="s">
+      <c r="B902" s="2" t="s">
         <v>919</v>
       </c>
       <c r="D902" t="s">
@@ -38852,7 +38847,7 @@
       <c r="A903" t="s">
         <v>800</v>
       </c>
-      <c r="B903" t="s">
+      <c r="B903" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C903" t="s">
@@ -38881,7 +38876,7 @@
       <c r="A904" t="s">
         <v>801</v>
       </c>
-      <c r="B904" t="s">
+      <c r="B904" s="2" t="s">
         <v>927</v>
       </c>
       <c r="D904" t="s">
@@ -38907,7 +38902,7 @@
       <c r="A905" t="s">
         <v>381</v>
       </c>
-      <c r="B905">
+      <c r="B905" s="2">
         <v>2015</v>
       </c>
       <c r="D905" t="s">
@@ -38933,7 +38928,7 @@
       <c r="A906" t="s">
         <v>802</v>
       </c>
-      <c r="B906" t="s">
+      <c r="B906" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C906" t="s">
@@ -38962,7 +38957,7 @@
       <c r="A907" t="s">
         <v>803</v>
       </c>
-      <c r="B907" t="s">
+      <c r="B907" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C907" t="s">
@@ -38991,7 +38986,7 @@
       <c r="A908" t="s">
         <v>804</v>
       </c>
-      <c r="B908" t="s">
+      <c r="B908" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C908" t="s">
@@ -39020,7 +39015,7 @@
       <c r="A909" t="s">
         <v>805</v>
       </c>
-      <c r="B909">
+      <c r="B909" s="2">
         <v>2015</v>
       </c>
       <c r="C909" t="s">
@@ -39049,7 +39044,7 @@
       <c r="A910" t="s">
         <v>806</v>
       </c>
-      <c r="B910" t="s">
+      <c r="B910" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C910" t="s">
@@ -39078,7 +39073,7 @@
       <c r="A911" t="s">
         <v>807</v>
       </c>
-      <c r="B911">
+      <c r="B911" s="2">
         <v>2015</v>
       </c>
       <c r="C911" t="s">
@@ -39107,7 +39102,7 @@
       <c r="A912" t="s">
         <v>808</v>
       </c>
-      <c r="B912">
+      <c r="B912" s="2">
         <v>2015</v>
       </c>
       <c r="C912" t="s">
@@ -39136,7 +39131,7 @@
       <c r="A913" t="s">
         <v>809</v>
       </c>
-      <c r="B913">
+      <c r="B913" s="2">
         <v>2015</v>
       </c>
       <c r="C913" t="s">
@@ -39165,7 +39160,7 @@
       <c r="A914" t="s">
         <v>810</v>
       </c>
-      <c r="B914">
+      <c r="B914" s="2">
         <v>2015</v>
       </c>
       <c r="C914" t="s">
@@ -39194,7 +39189,7 @@
       <c r="A915" t="s">
         <v>710</v>
       </c>
-      <c r="B915">
+      <c r="B915" s="2">
         <v>2015</v>
       </c>
       <c r="C915" t="s">
@@ -39223,7 +39218,7 @@
       <c r="A916" t="s">
         <v>811</v>
       </c>
-      <c r="B916">
+      <c r="B916" s="2">
         <v>2015</v>
       </c>
       <c r="C916" t="s">
@@ -39252,7 +39247,7 @@
       <c r="A917" t="s">
         <v>595</v>
       </c>
-      <c r="B917">
+      <c r="B917" s="2">
         <v>2015</v>
       </c>
       <c r="C917" t="s">
@@ -39281,7 +39276,7 @@
       <c r="A918" t="s">
         <v>812</v>
       </c>
-      <c r="B918" t="s">
+      <c r="B918" s="2" t="s">
         <v>930</v>
       </c>
       <c r="C918" t="s">
@@ -39310,7 +39305,7 @@
       <c r="A919" t="s">
         <v>530</v>
       </c>
-      <c r="B919">
+      <c r="B919" s="2">
         <v>2015</v>
       </c>
       <c r="C919" t="s">
@@ -39339,7 +39334,7 @@
       <c r="A920" t="s">
         <v>690</v>
       </c>
-      <c r="B920">
+      <c r="B920" s="2">
         <v>2015</v>
       </c>
       <c r="C920" t="s">
@@ -39368,7 +39363,7 @@
       <c r="A921" t="s">
         <v>656</v>
       </c>
-      <c r="B921">
+      <c r="B921" s="2">
         <v>2015</v>
       </c>
       <c r="C921" t="s">
@@ -39397,7 +39392,7 @@
       <c r="A922" t="s">
         <v>813</v>
       </c>
-      <c r="B922">
+      <c r="B922" s="2">
         <v>2015</v>
       </c>
       <c r="D922" t="s">
@@ -39423,7 +39418,7 @@
       <c r="A923" t="s">
         <v>814</v>
       </c>
-      <c r="B923" t="s">
+      <c r="B923" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C923" t="s">
@@ -39452,7 +39447,7 @@
       <c r="A924" t="s">
         <v>723</v>
       </c>
-      <c r="B924" t="s">
+      <c r="B924" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C924" t="s">
@@ -39481,7 +39476,7 @@
       <c r="A925" t="s">
         <v>460</v>
       </c>
-      <c r="B925" t="s">
+      <c r="B925" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C925" t="s">
@@ -39510,7 +39505,7 @@
       <c r="A926" t="s">
         <v>815</v>
       </c>
-      <c r="B926" t="s">
+      <c r="B926" s="2" t="s">
         <v>914</v>
       </c>
       <c r="D926" t="s">
@@ -39536,7 +39531,7 @@
       <c r="A927" t="s">
         <v>816</v>
       </c>
-      <c r="B927">
+      <c r="B927" s="2">
         <v>2015</v>
       </c>
       <c r="C927" t="s">
@@ -39565,7 +39560,7 @@
       <c r="A928" t="s">
         <v>314</v>
       </c>
-      <c r="B928" t="s">
+      <c r="B928" s="2" t="s">
         <v>915</v>
       </c>
       <c r="D928" t="s">
@@ -39591,7 +39586,7 @@
       <c r="A929" t="s">
         <v>817</v>
       </c>
-      <c r="B929" t="s">
+      <c r="B929" s="2" t="s">
         <v>928</v>
       </c>
       <c r="D929" t="s">
@@ -39617,7 +39612,7 @@
       <c r="A930" t="s">
         <v>818</v>
       </c>
-      <c r="B930" t="s">
+      <c r="B930" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C930" t="s">
@@ -39646,7 +39641,7 @@
       <c r="A931" t="s">
         <v>819</v>
       </c>
-      <c r="B931">
+      <c r="B931" s="2">
         <v>2015</v>
       </c>
       <c r="D931" t="s">
@@ -39672,7 +39667,7 @@
       <c r="A932" t="s">
         <v>820</v>
       </c>
-      <c r="B932" t="s">
+      <c r="B932" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C932" t="s">
@@ -39701,7 +39696,7 @@
       <c r="A933" t="s">
         <v>821</v>
       </c>
-      <c r="B933" t="s">
+      <c r="B933" s="2" t="s">
         <v>930</v>
       </c>
       <c r="C933" t="s">
@@ -39730,7 +39725,7 @@
       <c r="A934" t="s">
         <v>822</v>
       </c>
-      <c r="B934" t="s">
+      <c r="B934" s="2" t="s">
         <v>924</v>
       </c>
       <c r="D934" t="s">
@@ -39756,7 +39751,7 @@
       <c r="A935" t="s">
         <v>599</v>
       </c>
-      <c r="B935" t="s">
+      <c r="B935" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C935" t="s">
@@ -39785,7 +39780,7 @@
       <c r="A936" t="s">
         <v>823</v>
       </c>
-      <c r="B936">
+      <c r="B936" s="2">
         <v>2015</v>
       </c>
       <c r="D936" t="s">
@@ -39811,7 +39806,7 @@
       <c r="A937" t="s">
         <v>824</v>
       </c>
-      <c r="B937">
+      <c r="B937" s="2">
         <v>2015</v>
       </c>
       <c r="C937" t="s">
@@ -39840,7 +39835,7 @@
       <c r="A938" t="s">
         <v>825</v>
       </c>
-      <c r="B938">
+      <c r="B938" s="2">
         <v>2015</v>
       </c>
       <c r="C938" t="s">
@@ -39869,7 +39864,7 @@
       <c r="A939" t="s">
         <v>826</v>
       </c>
-      <c r="B939">
+      <c r="B939" s="2">
         <v>2015</v>
       </c>
       <c r="C939" t="s">
@@ -39898,7 +39893,7 @@
       <c r="A940" t="s">
         <v>135</v>
       </c>
-      <c r="B940">
+      <c r="B940" s="2">
         <v>2015</v>
       </c>
       <c r="C940" t="s">
@@ -39927,7 +39922,7 @@
       <c r="A941" t="s">
         <v>827</v>
       </c>
-      <c r="B941">
+      <c r="B941" s="2">
         <v>2015</v>
       </c>
       <c r="C941" t="s">
@@ -39956,7 +39951,7 @@
       <c r="A942" t="s">
         <v>828</v>
       </c>
-      <c r="B942">
+      <c r="B942" s="2">
         <v>2015</v>
       </c>
       <c r="C942" t="s">
@@ -39985,7 +39980,7 @@
       <c r="A943" t="s">
         <v>829</v>
       </c>
-      <c r="B943">
+      <c r="B943" s="2">
         <v>2015</v>
       </c>
       <c r="C943" t="s">
@@ -40014,7 +40009,7 @@
       <c r="A944" t="s">
         <v>830</v>
       </c>
-      <c r="B944" t="s">
+      <c r="B944" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C944" t="s">
@@ -40043,7 +40038,7 @@
       <c r="A945" t="s">
         <v>333</v>
       </c>
-      <c r="B945">
+      <c r="B945" s="2">
         <v>2015</v>
       </c>
       <c r="D945" t="s">
@@ -40069,7 +40064,7 @@
       <c r="A946" t="s">
         <v>831</v>
       </c>
-      <c r="B946" t="s">
+      <c r="B946" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C946" t="s">
@@ -40098,7 +40093,7 @@
       <c r="A947" t="s">
         <v>832</v>
       </c>
-      <c r="B947" t="s">
+      <c r="B947" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C947" t="s">
@@ -40127,7 +40122,7 @@
       <c r="A948" t="s">
         <v>833</v>
       </c>
-      <c r="B948">
+      <c r="B948" s="2">
         <v>2015</v>
       </c>
       <c r="C948" t="s">
@@ -40156,7 +40151,7 @@
       <c r="A949" t="s">
         <v>251</v>
       </c>
-      <c r="B949">
+      <c r="B949" s="2">
         <v>2015</v>
       </c>
       <c r="D949" t="s">
@@ -40182,7 +40177,7 @@
       <c r="A950" t="s">
         <v>834</v>
       </c>
-      <c r="B950">
+      <c r="B950" s="2">
         <v>2015</v>
       </c>
       <c r="C950" t="s">
@@ -40211,7 +40206,7 @@
       <c r="A951" t="s">
         <v>518</v>
       </c>
-      <c r="B951" t="s">
+      <c r="B951" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C951" t="s">
@@ -40240,7 +40235,7 @@
       <c r="A952" t="s">
         <v>835</v>
       </c>
-      <c r="B952">
+      <c r="B952" s="2">
         <v>2015</v>
       </c>
       <c r="D952" t="s">
@@ -40266,7 +40261,7 @@
       <c r="A953" t="s">
         <v>836</v>
       </c>
-      <c r="B953" t="s">
+      <c r="B953" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C953" t="s">
@@ -40295,7 +40290,7 @@
       <c r="A954" t="s">
         <v>837</v>
       </c>
-      <c r="B954">
+      <c r="B954" s="2">
         <v>2015</v>
       </c>
       <c r="C954" t="s">
@@ -40324,7 +40319,7 @@
       <c r="A955" t="s">
         <v>838</v>
       </c>
-      <c r="B955" t="s">
+      <c r="B955" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C955" t="s">
@@ -40353,7 +40348,7 @@
       <c r="A956" t="s">
         <v>839</v>
       </c>
-      <c r="B956">
+      <c r="B956" s="2">
         <v>2015</v>
       </c>
       <c r="C956" t="s">
@@ -40382,7 +40377,7 @@
       <c r="A957" t="s">
         <v>840</v>
       </c>
-      <c r="B957" t="s">
+      <c r="B957" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C957" t="s">
@@ -40411,7 +40406,7 @@
       <c r="A958" t="s">
         <v>841</v>
       </c>
-      <c r="B958" t="s">
+      <c r="B958" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C958" t="s">
@@ -40440,7 +40435,7 @@
       <c r="A959" t="s">
         <v>247</v>
       </c>
-      <c r="B959" t="s">
+      <c r="B959" s="2" t="s">
         <v>915</v>
       </c>
       <c r="D959" t="s">
@@ -40466,7 +40461,7 @@
       <c r="A960" t="s">
         <v>787</v>
       </c>
-      <c r="B960" t="s">
+      <c r="B960" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C960" t="s">
@@ -40495,7 +40490,7 @@
       <c r="A961" t="s">
         <v>842</v>
       </c>
-      <c r="B961" t="s">
+      <c r="B961" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C961" t="s">
@@ -40524,7 +40519,7 @@
       <c r="A962" t="s">
         <v>778</v>
       </c>
-      <c r="B962" t="s">
+      <c r="B962" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C962" t="s">
@@ -40553,7 +40548,7 @@
       <c r="A963" t="s">
         <v>798</v>
       </c>
-      <c r="B963" t="s">
+      <c r="B963" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C963" t="s">
@@ -40582,7 +40577,7 @@
       <c r="A964" t="s">
         <v>843</v>
       </c>
-      <c r="B964" t="s">
+      <c r="B964" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C964" t="s">
@@ -40611,7 +40606,7 @@
       <c r="A965" t="s">
         <v>564</v>
       </c>
-      <c r="B965" t="s">
+      <c r="B965" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C965" t="s">
@@ -40640,7 +40635,7 @@
       <c r="A966" t="s">
         <v>844</v>
       </c>
-      <c r="B966" t="s">
+      <c r="B966" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C966" t="s">
@@ -40669,7 +40664,7 @@
       <c r="A967" t="s">
         <v>845</v>
       </c>
-      <c r="B967" t="s">
+      <c r="B967" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C967" t="s">
@@ -40698,7 +40693,7 @@
       <c r="A968" t="s">
         <v>846</v>
       </c>
-      <c r="B968" t="s">
+      <c r="B968" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C968" t="s">
@@ -40727,7 +40722,7 @@
       <c r="A969" t="s">
         <v>847</v>
       </c>
-      <c r="B969" t="s">
+      <c r="B969" s="2" t="s">
         <v>917</v>
       </c>
       <c r="D969" t="s">
@@ -40753,7 +40748,7 @@
       <c r="A970" t="s">
         <v>848</v>
       </c>
-      <c r="B970" t="s">
+      <c r="B970" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C970" t="s">
@@ -40782,7 +40777,7 @@
       <c r="A971" t="s">
         <v>849</v>
       </c>
-      <c r="B971">
+      <c r="B971" s="2">
         <v>2015</v>
       </c>
       <c r="C971" t="s">
@@ -40811,7 +40806,7 @@
       <c r="A972" t="s">
         <v>850</v>
       </c>
-      <c r="B972" t="s">
+      <c r="B972" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C972" t="s">
@@ -40840,7 +40835,7 @@
       <c r="A973" t="s">
         <v>851</v>
       </c>
-      <c r="B973" t="s">
+      <c r="B973" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C973" t="s">
@@ -40869,7 +40864,7 @@
       <c r="A974" t="s">
         <v>797</v>
       </c>
-      <c r="B974">
+      <c r="B974" s="2">
         <v>2015</v>
       </c>
       <c r="C974" t="s">
@@ -40898,7 +40893,7 @@
       <c r="A975" t="s">
         <v>411</v>
       </c>
-      <c r="B975" t="s">
+      <c r="B975" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C975" t="s">
@@ -40927,7 +40922,7 @@
       <c r="A976" t="s">
         <v>218</v>
       </c>
-      <c r="B976">
+      <c r="B976" s="2">
         <v>2015</v>
       </c>
       <c r="C976" t="s">
@@ -40956,7 +40951,7 @@
       <c r="A977" t="s">
         <v>852</v>
       </c>
-      <c r="B977" t="s">
+      <c r="B977" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C977" t="s">
@@ -40985,7 +40980,7 @@
       <c r="A978" t="s">
         <v>27</v>
       </c>
-      <c r="B978">
+      <c r="B978" s="2">
         <v>2015</v>
       </c>
       <c r="C978" t="s">
@@ -41014,7 +41009,7 @@
       <c r="A979" t="s">
         <v>136</v>
       </c>
-      <c r="B979">
+      <c r="B979" s="2">
         <v>2015</v>
       </c>
       <c r="C979" t="s">
@@ -41043,7 +41038,7 @@
       <c r="A980" t="s">
         <v>853</v>
       </c>
-      <c r="B980">
+      <c r="B980" s="2">
         <v>2015</v>
       </c>
       <c r="C980" t="s">
@@ -41072,7 +41067,7 @@
       <c r="A981" t="s">
         <v>854</v>
       </c>
-      <c r="B981">
+      <c r="B981" s="2">
         <v>2015</v>
       </c>
       <c r="D981" t="s">
@@ -41098,7 +41093,7 @@
       <c r="A982" t="s">
         <v>855</v>
       </c>
-      <c r="B982" t="s">
+      <c r="B982" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C982" t="s">
@@ -41127,7 +41122,7 @@
       <c r="A983" t="s">
         <v>856</v>
       </c>
-      <c r="B983" t="s">
+      <c r="B983" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C983" t="s">
@@ -41156,7 +41151,7 @@
       <c r="A984" t="s">
         <v>857</v>
       </c>
-      <c r="B984" t="s">
+      <c r="B984" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C984" t="s">
@@ -41185,7 +41180,7 @@
       <c r="A985" t="s">
         <v>770</v>
       </c>
-      <c r="B985" t="s">
+      <c r="B985" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C985" t="s">
@@ -41214,7 +41209,7 @@
       <c r="A986" t="s">
         <v>858</v>
       </c>
-      <c r="B986">
+      <c r="B986" s="2">
         <v>2015</v>
       </c>
       <c r="D986" t="s">
@@ -41240,7 +41235,7 @@
       <c r="A987" t="s">
         <v>859</v>
       </c>
-      <c r="B987" t="s">
+      <c r="B987" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C987" t="s">
@@ -41269,7 +41264,7 @@
       <c r="A988" t="s">
         <v>860</v>
       </c>
-      <c r="B988" t="s">
+      <c r="B988" s="2" t="s">
         <v>914</v>
       </c>
       <c r="D988" t="s">
@@ -41295,7 +41290,7 @@
       <c r="A989" t="s">
         <v>861</v>
       </c>
-      <c r="B989" t="s">
+      <c r="B989" s="2" t="s">
         <v>920</v>
       </c>
       <c r="D989" t="s">
@@ -41321,7 +41316,7 @@
       <c r="A990" t="s">
         <v>862</v>
       </c>
-      <c r="B990" t="s">
+      <c r="B990" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C990" t="s">
@@ -41350,7 +41345,7 @@
       <c r="A991" t="s">
         <v>863</v>
       </c>
-      <c r="B991" t="s">
+      <c r="B991" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C991" t="s">
@@ -41379,7 +41374,7 @@
       <c r="A992" t="s">
         <v>724</v>
       </c>
-      <c r="B992" t="s">
+      <c r="B992" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C992" t="s">
@@ -41408,7 +41403,7 @@
       <c r="A993" t="s">
         <v>864</v>
       </c>
-      <c r="B993" t="s">
+      <c r="B993" s="2" t="s">
         <v>914</v>
       </c>
       <c r="D993" t="s">
@@ -41434,7 +41429,7 @@
       <c r="A994" t="s">
         <v>865</v>
       </c>
-      <c r="B994" t="s">
+      <c r="B994" s="2" t="s">
         <v>917</v>
       </c>
       <c r="D994" t="s">
@@ -41460,7 +41455,7 @@
       <c r="A995" t="s">
         <v>866</v>
       </c>
-      <c r="B995">
+      <c r="B995" s="2">
         <v>2015</v>
       </c>
       <c r="D995" t="s">
@@ -41486,7 +41481,7 @@
       <c r="A996" t="s">
         <v>390</v>
       </c>
-      <c r="B996" t="s">
+      <c r="B996" s="2" t="s">
         <v>915</v>
       </c>
       <c r="C996" t="s">
@@ -41515,7 +41510,7 @@
       <c r="A997" t="s">
         <v>867</v>
       </c>
-      <c r="B997" t="s">
+      <c r="B997" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C997" t="s">
@@ -41544,7 +41539,7 @@
       <c r="A998" t="s">
         <v>868</v>
       </c>
-      <c r="B998">
+      <c r="B998" s="2">
         <v>2015</v>
       </c>
       <c r="C998" t="s">
@@ -41573,7 +41568,7 @@
       <c r="A999" t="s">
         <v>869</v>
       </c>
-      <c r="B999">
+      <c r="B999" s="2">
         <v>2015</v>
       </c>
       <c r="C999" t="s">
@@ -41602,7 +41597,7 @@
       <c r="A1000" t="s">
         <v>870</v>
       </c>
-      <c r="B1000">
+      <c r="B1000" s="2">
         <v>2015</v>
       </c>
       <c r="C1000" t="s">
@@ -41631,7 +41626,7 @@
       <c r="A1001" t="s">
         <v>871</v>
       </c>
-      <c r="B1001">
+      <c r="B1001" s="2">
         <v>2015</v>
       </c>
       <c r="D1001" t="s">
@@ -41657,7 +41652,7 @@
       <c r="A1002" t="s">
         <v>872</v>
       </c>
-      <c r="B1002">
+      <c r="B1002" s="2">
         <v>2015</v>
       </c>
       <c r="C1002" t="s">
@@ -41686,7 +41681,7 @@
       <c r="A1003" t="s">
         <v>873</v>
       </c>
-      <c r="B1003" t="s">
+      <c r="B1003" s="2" t="s">
         <v>930</v>
       </c>
       <c r="D1003" t="s">
@@ -41712,7 +41707,7 @@
       <c r="A1004" t="s">
         <v>874</v>
       </c>
-      <c r="B1004">
+      <c r="B1004" s="2">
         <v>2015</v>
       </c>
       <c r="C1004" t="s">
@@ -41741,7 +41736,7 @@
       <c r="A1005" t="s">
         <v>875</v>
       </c>
-      <c r="B1005" t="s">
+      <c r="B1005" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C1005" t="s">
@@ -41770,7 +41765,7 @@
       <c r="A1006" t="s">
         <v>876</v>
       </c>
-      <c r="B1006">
+      <c r="B1006" s="2">
         <v>2015</v>
       </c>
       <c r="C1006" t="s">
@@ -41799,7 +41794,7 @@
       <c r="A1007" t="s">
         <v>82</v>
       </c>
-      <c r="B1007" t="s">
+      <c r="B1007" s="2" t="s">
         <v>914</v>
       </c>
       <c r="D1007" t="s">
@@ -41825,7 +41820,7 @@
       <c r="A1008" t="s">
         <v>770</v>
       </c>
-      <c r="B1008" t="s">
+      <c r="B1008" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C1008" t="s">
@@ -41854,7 +41849,7 @@
       <c r="A1009" t="s">
         <v>877</v>
       </c>
-      <c r="B1009" t="s">
+      <c r="B1009" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C1009" t="s">
@@ -41883,7 +41878,7 @@
       <c r="A1010" t="s">
         <v>878</v>
       </c>
-      <c r="B1010" t="s">
+      <c r="B1010" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C1010" t="s">
@@ -41912,7 +41907,7 @@
       <c r="A1011" t="s">
         <v>879</v>
       </c>
-      <c r="B1011">
+      <c r="B1011" s="2">
         <v>2015</v>
       </c>
       <c r="C1011" t="s">
@@ -41941,7 +41936,7 @@
       <c r="A1012" t="s">
         <v>880</v>
       </c>
-      <c r="B1012" t="s">
+      <c r="B1012" s="2" t="s">
         <v>915</v>
       </c>
       <c r="D1012" t="s">
@@ -41967,7 +41962,7 @@
       <c r="A1013" t="s">
         <v>696</v>
       </c>
-      <c r="B1013" t="s">
+      <c r="B1013" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C1013" t="s">
@@ -41996,7 +41991,7 @@
       <c r="A1014" t="s">
         <v>263</v>
       </c>
-      <c r="B1014" t="s">
+      <c r="B1014" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C1014" t="s">
@@ -42025,7 +42020,7 @@
       <c r="A1015" t="s">
         <v>881</v>
       </c>
-      <c r="B1015" t="s">
+      <c r="B1015" s="2" t="s">
         <v>920</v>
       </c>
       <c r="D1015" t="s">
@@ -42051,7 +42046,7 @@
       <c r="A1016" t="s">
         <v>882</v>
       </c>
-      <c r="B1016" t="s">
+      <c r="B1016" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C1016" t="s">
@@ -42080,7 +42075,7 @@
       <c r="A1017" t="s">
         <v>883</v>
       </c>
-      <c r="B1017" t="s">
+      <c r="B1017" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C1017" t="s">
@@ -42109,7 +42104,7 @@
       <c r="A1018" t="s">
         <v>884</v>
       </c>
-      <c r="B1018" t="s">
+      <c r="B1018" s="2" t="s">
         <v>914</v>
       </c>
       <c r="D1018" t="s">
@@ -42135,7 +42130,7 @@
       <c r="A1019" t="s">
         <v>885</v>
       </c>
-      <c r="B1019" t="s">
+      <c r="B1019" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C1019" t="s">
@@ -42164,7 +42159,7 @@
       <c r="A1020" t="s">
         <v>886</v>
       </c>
-      <c r="B1020">
+      <c r="B1020" s="2">
         <v>2015</v>
       </c>
       <c r="C1020" t="s">
@@ -42193,7 +42188,7 @@
       <c r="A1021" t="s">
         <v>887</v>
       </c>
-      <c r="B1021">
+      <c r="B1021" s="2">
         <v>2015</v>
       </c>
       <c r="C1021" t="s">
@@ -42222,7 +42217,7 @@
       <c r="A1022" t="s">
         <v>888</v>
       </c>
-      <c r="B1022">
+      <c r="B1022" s="2">
         <v>2015</v>
       </c>
       <c r="C1022" t="s">
@@ -42251,7 +42246,7 @@
       <c r="A1023" t="s">
         <v>889</v>
       </c>
-      <c r="B1023">
+      <c r="B1023" s="2">
         <v>2015</v>
       </c>
       <c r="C1023" t="s">
@@ -42280,7 +42275,7 @@
       <c r="A1024" t="s">
         <v>890</v>
       </c>
-      <c r="B1024">
+      <c r="B1024" s="2">
         <v>2015</v>
       </c>
       <c r="D1024" t="s">
@@ -42306,7 +42301,7 @@
       <c r="A1025" t="s">
         <v>891</v>
       </c>
-      <c r="B1025">
+      <c r="B1025" s="2">
         <v>2015</v>
       </c>
       <c r="C1025" t="s">
@@ -42335,7 +42330,7 @@
       <c r="A1026" t="s">
         <v>892</v>
       </c>
-      <c r="B1026">
+      <c r="B1026" s="2">
         <v>2015</v>
       </c>
       <c r="D1026" t="s">
@@ -42361,7 +42356,7 @@
       <c r="A1027" t="s">
         <v>893</v>
       </c>
-      <c r="B1027" t="s">
+      <c r="B1027" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C1027" t="s">
@@ -42390,7 +42385,7 @@
       <c r="A1028" t="s">
         <v>894</v>
       </c>
-      <c r="B1028">
+      <c r="B1028" s="2">
         <v>2015</v>
       </c>
       <c r="D1028" t="s">
@@ -42416,7 +42411,7 @@
       <c r="A1029" t="s">
         <v>895</v>
       </c>
-      <c r="B1029" t="s">
+      <c r="B1029" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C1029" t="s">
@@ -42445,7 +42440,7 @@
       <c r="A1030" t="s">
         <v>896</v>
       </c>
-      <c r="B1030">
+      <c r="B1030" s="2">
         <v>2015</v>
       </c>
       <c r="D1030" t="s">
@@ -42471,7 +42466,7 @@
       <c r="A1031" t="s">
         <v>897</v>
       </c>
-      <c r="B1031">
+      <c r="B1031" s="2">
         <v>2015</v>
       </c>
       <c r="D1031" t="s">
@@ -42497,7 +42492,7 @@
       <c r="A1032" t="s">
         <v>898</v>
       </c>
-      <c r="B1032" t="s">
+      <c r="B1032" s="2" t="s">
         <v>921</v>
       </c>
       <c r="D1032" t="s">
@@ -42523,7 +42518,7 @@
       <c r="A1033" t="s">
         <v>24</v>
       </c>
-      <c r="B1033">
+      <c r="B1033" s="2">
         <v>2015</v>
       </c>
       <c r="D1033" t="s">
@@ -42549,7 +42544,7 @@
       <c r="A1034" t="s">
         <v>822</v>
       </c>
-      <c r="B1034" t="s">
+      <c r="B1034" s="2" t="s">
         <v>924</v>
       </c>
       <c r="D1034" t="s">
@@ -42575,7 +42570,7 @@
       <c r="A1035" t="s">
         <v>899</v>
       </c>
-      <c r="B1035">
+      <c r="B1035" s="2">
         <v>2015</v>
       </c>
       <c r="C1035" t="s">
@@ -42604,7 +42599,7 @@
       <c r="A1036" t="s">
         <v>900</v>
       </c>
-      <c r="B1036" t="s">
+      <c r="B1036" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C1036" t="s">
@@ -42633,7 +42628,7 @@
       <c r="A1037" t="s">
         <v>901</v>
       </c>
-      <c r="B1037">
+      <c r="B1037" s="2">
         <v>2015</v>
       </c>
       <c r="C1037" t="s">
@@ -42662,7 +42657,7 @@
       <c r="A1038" t="s">
         <v>67</v>
       </c>
-      <c r="B1038" t="s">
+      <c r="B1038" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C1038" t="s">
@@ -42691,7 +42686,7 @@
       <c r="A1039" t="s">
         <v>416</v>
       </c>
-      <c r="B1039" t="s">
+      <c r="B1039" s="2" t="s">
         <v>914</v>
       </c>
       <c r="C1039" t="s">
@@ -42720,7 +42715,7 @@
       <c r="A1040" t="s">
         <v>902</v>
       </c>
-      <c r="B1040" t="s">
+      <c r="B1040" s="2" t="s">
         <v>918</v>
       </c>
       <c r="D1040" t="s">
@@ -42746,7 +42741,7 @@
       <c r="A1041" t="s">
         <v>903</v>
       </c>
-      <c r="B1041">
+      <c r="B1041" s="2">
         <v>2015</v>
       </c>
       <c r="C1041" t="s">
@@ -42775,7 +42770,7 @@
       <c r="A1042" t="s">
         <v>904</v>
       </c>
-      <c r="B1042">
+      <c r="B1042" s="2">
         <v>2015</v>
       </c>
       <c r="C1042" t="s">
@@ -42804,7 +42799,7 @@
       <c r="A1043" t="s">
         <v>905</v>
       </c>
-      <c r="B1043">
+      <c r="B1043" s="2">
         <v>2015</v>
       </c>
       <c r="C1043" t="s">
@@ -42833,7 +42828,7 @@
       <c r="A1044" t="s">
         <v>906</v>
       </c>
-      <c r="B1044" t="s">
+      <c r="B1044" s="2" t="s">
         <v>919</v>
       </c>
       <c r="D1044" t="s">
@@ -42859,7 +42854,7 @@
       <c r="A1045" t="s">
         <v>907</v>
       </c>
-      <c r="B1045" t="s">
+      <c r="B1045" s="2" t="s">
         <v>939</v>
       </c>
       <c r="C1045" t="s">
@@ -42888,7 +42883,7 @@
       <c r="A1046" t="s">
         <v>908</v>
       </c>
-      <c r="B1046" t="s">
+      <c r="B1046" s="2" t="s">
         <v>915</v>
       </c>
       <c r="D1046" t="s">
@@ -42914,7 +42909,7 @@
       <c r="A1047" t="s">
         <v>580</v>
       </c>
-      <c r="B1047" t="s">
+      <c r="B1047" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C1047" t="s">
@@ -42943,7 +42938,7 @@
       <c r="A1048" t="s">
         <v>909</v>
       </c>
-      <c r="B1048" t="s">
+      <c r="B1048" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C1048" t="s">
@@ -42972,7 +42967,7 @@
       <c r="A1049" t="s">
         <v>910</v>
       </c>
-      <c r="B1049">
+      <c r="B1049" s="2">
         <v>2015</v>
       </c>
       <c r="C1049" t="s">
@@ -43001,7 +42996,7 @@
       <c r="A1050" t="s">
         <v>911</v>
       </c>
-      <c r="B1050">
+      <c r="B1050" s="2">
         <v>2015</v>
       </c>
       <c r="D1050" t="s">
@@ -43027,7 +43022,7 @@
       <c r="A1051" t="s">
         <v>912</v>
       </c>
-      <c r="B1051" t="s">
+      <c r="B1051" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C1051" t="s">
@@ -43056,7 +43051,7 @@
       <c r="A1052" t="s">
         <v>806</v>
       </c>
-      <c r="B1052" t="s">
+      <c r="B1052" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C1052" t="s">
@@ -43085,7 +43080,7 @@
       <c r="A1053" t="s">
         <v>913</v>
       </c>
-      <c r="B1053" t="s">
+      <c r="B1053" s="2" t="s">
         <v>920</v>
       </c>
       <c r="C1053" t="s">
@@ -43112,8 +43107,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>